--- a/data/HR1/A_BJ_35/A_BJ_35_2024.xlsx
+++ b/data/HR1/A_BJ_35/A_BJ_35_2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\HR1\A_BJ_35\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A02D59-2A37-4820-BAFA-CED4419B55D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85320394-3A6C-4079-BD3D-E2C5BA91E0B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="23" activeTab="32" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -39,12 +39,12 @@
     <sheet name="Qc, Summer, S3" sheetId="30" r:id="rId24"/>
     <sheet name="UpFlex, Summer" sheetId="10" r:id="rId25"/>
     <sheet name="DownFlex, Summer" sheetId="11" r:id="rId26"/>
-    <sheet name="Pg, Summer, S1" sheetId="16" r:id="rId27"/>
-    <sheet name="Pg, Summer, S2" sheetId="31" r:id="rId28"/>
-    <sheet name="Pg, Summer, S3" sheetId="32" r:id="rId29"/>
-    <sheet name="Qg, Summer, S1" sheetId="17" r:id="rId30"/>
-    <sheet name="Qg, Summer, S2" sheetId="33" r:id="rId31"/>
-    <sheet name="Qg, Summer, S3" sheetId="34" r:id="rId32"/>
+    <sheet name="Pg, Summer, S1" sheetId="35" r:id="rId27"/>
+    <sheet name="Pg, Summer, S2" sheetId="36" r:id="rId28"/>
+    <sheet name="Pg, Summer, S3" sheetId="37" r:id="rId29"/>
+    <sheet name="Qg, Summer, S1" sheetId="38" r:id="rId30"/>
+    <sheet name="Qg, Summer, S2" sheetId="39" r:id="rId31"/>
+    <sheet name="Qg, Summer, S3" sheetId="40" r:id="rId32"/>
     <sheet name="GenStatus, Summer" sheetId="18" r:id="rId33"/>
   </sheets>
   <externalReferences>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="12">
   <si>
     <t>numScenarios</t>
   </si>
@@ -204,6 +204,8 @@
       <sheetName val="DownFlex, Winter"/>
       <sheetName val="UpFlex, Summer"/>
       <sheetName val="DownFlex, Summer"/>
+      <sheetName val="Profiles, RES, Winter"/>
+      <sheetName val="Profiles, RES, Summer"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -15865,6 +15867,454 @@
           </cell>
           <cell r="Y14">
             <v>0.43115985136262791</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="19">
+        <row r="2">
+          <cell r="B2">
+            <v>0</v>
+          </cell>
+          <cell r="C2">
+            <v>0</v>
+          </cell>
+          <cell r="D2">
+            <v>1.5680716832769496E-5</v>
+          </cell>
+          <cell r="E2">
+            <v>0</v>
+          </cell>
+          <cell r="F2">
+            <v>0</v>
+          </cell>
+          <cell r="G2">
+            <v>0</v>
+          </cell>
+          <cell r="H2">
+            <v>0</v>
+          </cell>
+          <cell r="I2">
+            <v>9.5351558928408135E-3</v>
+          </cell>
+          <cell r="J2">
+            <v>0.18890239553808172</v>
+          </cell>
+          <cell r="K2">
+            <v>0.49290093261406231</v>
+          </cell>
+          <cell r="L2">
+            <v>0.61511611959403845</v>
+          </cell>
+          <cell r="M2">
+            <v>0.68321139252080076</v>
+          </cell>
+          <cell r="N2">
+            <v>0.69588141172167872</v>
+          </cell>
+          <cell r="O2">
+            <v>0.68310322757611763</v>
+          </cell>
+          <cell r="P2">
+            <v>0.58327338392612227</v>
+          </cell>
+          <cell r="Q2">
+            <v>0.38544322026149763</v>
+          </cell>
+          <cell r="R2">
+            <v>9.4168304836792532E-2</v>
+          </cell>
+          <cell r="S2">
+            <v>7.3603364725244585E-4</v>
+          </cell>
+          <cell r="T2">
+            <v>6.3362896589558382E-5</v>
+          </cell>
+          <cell r="U2">
+            <v>4.8482216329889367E-5</v>
+          </cell>
+          <cell r="V2">
+            <v>0</v>
+          </cell>
+          <cell r="W2">
+            <v>0</v>
+          </cell>
+          <cell r="X2">
+            <v>0</v>
+          </cell>
+          <cell r="Y2">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>0</v>
+          </cell>
+          <cell r="C3">
+            <v>2.7254098360655734E-5</v>
+          </cell>
+          <cell r="D3">
+            <v>0</v>
+          </cell>
+          <cell r="E3">
+            <v>0</v>
+          </cell>
+          <cell r="F3">
+            <v>0</v>
+          </cell>
+          <cell r="G3">
+            <v>0</v>
+          </cell>
+          <cell r="H3">
+            <v>0</v>
+          </cell>
+          <cell r="I3">
+            <v>7.6400409836065563E-3</v>
+          </cell>
+          <cell r="J3">
+            <v>0.15037377049180325</v>
+          </cell>
+          <cell r="K3">
+            <v>0.35771721311475413</v>
+          </cell>
+          <cell r="L3">
+            <v>0.48138081967213114</v>
+          </cell>
+          <cell r="M3">
+            <v>0.59039606557377045</v>
+          </cell>
+          <cell r="N3">
+            <v>0.70114180327868847</v>
+          </cell>
+          <cell r="O3">
+            <v>0.585118237704918</v>
+          </cell>
+          <cell r="P3">
+            <v>0.42994487704918033</v>
+          </cell>
+          <cell r="Q3">
+            <v>0.20624983606557376</v>
+          </cell>
+          <cell r="R3">
+            <v>4.3088729508196713E-2</v>
+          </cell>
+          <cell r="S3">
+            <v>2.7540983606557371E-4</v>
+          </cell>
+          <cell r="T3">
+            <v>1.2049180327868852E-4</v>
+          </cell>
+          <cell r="U3">
+            <v>0</v>
+          </cell>
+          <cell r="V3">
+            <v>0</v>
+          </cell>
+          <cell r="W3">
+            <v>0</v>
+          </cell>
+          <cell r="X3">
+            <v>0</v>
+          </cell>
+          <cell r="Y3">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>0</v>
+          </cell>
+          <cell r="C4">
+            <v>0</v>
+          </cell>
+          <cell r="D4">
+            <v>0</v>
+          </cell>
+          <cell r="E4">
+            <v>0</v>
+          </cell>
+          <cell r="F4">
+            <v>0</v>
+          </cell>
+          <cell r="G4">
+            <v>0</v>
+          </cell>
+          <cell r="H4">
+            <v>0</v>
+          </cell>
+          <cell r="I4">
+            <v>8.260566945077194E-3</v>
+          </cell>
+          <cell r="J4">
+            <v>0.18037822703113135</v>
+          </cell>
+          <cell r="K4">
+            <v>0.41995460010124014</v>
+          </cell>
+          <cell r="L4">
+            <v>0.60561693242217163</v>
+          </cell>
+          <cell r="M4">
+            <v>0.62344801948873685</v>
+          </cell>
+          <cell r="N4">
+            <v>0.59197370918754733</v>
+          </cell>
+          <cell r="O4">
+            <v>0.46347538597823329</v>
+          </cell>
+          <cell r="P4">
+            <v>0.35702126044039478</v>
+          </cell>
+          <cell r="Q4">
+            <v>0.15148949633004302</v>
+          </cell>
+          <cell r="R4">
+            <v>2.6744969627942289E-2</v>
+          </cell>
+          <cell r="S4">
+            <v>4.34067324727917E-5</v>
+          </cell>
+          <cell r="T4">
+            <v>0</v>
+          </cell>
+          <cell r="U4">
+            <v>0</v>
+          </cell>
+          <cell r="V4">
+            <v>0</v>
+          </cell>
+          <cell r="W4">
+            <v>0</v>
+          </cell>
+          <cell r="X4">
+            <v>0</v>
+          </cell>
+          <cell r="Y4">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="20">
+        <row r="2">
+          <cell r="B2">
+            <v>0</v>
+          </cell>
+          <cell r="C2">
+            <v>0</v>
+          </cell>
+          <cell r="D2">
+            <v>1.9757703209289567E-5</v>
+          </cell>
+          <cell r="E2">
+            <v>0</v>
+          </cell>
+          <cell r="F2">
+            <v>0</v>
+          </cell>
+          <cell r="G2">
+            <v>0</v>
+          </cell>
+          <cell r="H2">
+            <v>0</v>
+          </cell>
+          <cell r="I2">
+            <v>1.1537538630337385E-2</v>
+          </cell>
+          <cell r="J2">
+            <v>0.23990604233336377</v>
+          </cell>
+          <cell r="K2">
+            <v>0.63584220307214034</v>
+          </cell>
+          <cell r="L2">
+            <v>0.79965095547225007</v>
+          </cell>
+          <cell r="M2">
+            <v>0.82668578495016887</v>
+          </cell>
+          <cell r="N2">
+            <v>0.90464583523818232</v>
+          </cell>
+          <cell r="O2">
+            <v>0.88120316357319173</v>
+          </cell>
+          <cell r="P2">
+            <v>0.7407571975861752</v>
+          </cell>
+          <cell r="Q2">
+            <v>0.47409516092164211</v>
+          </cell>
+          <cell r="R2">
+            <v>0.11865206409435858</v>
+          </cell>
+          <cell r="S2">
+            <v>9.274023955380818E-4</v>
+          </cell>
+          <cell r="T2">
+            <v>7.8569991771052395E-5</v>
+          </cell>
+          <cell r="U2">
+            <v>5.8663481759166133E-5</v>
+          </cell>
+          <cell r="V2">
+            <v>0</v>
+          </cell>
+          <cell r="W2">
+            <v>0</v>
+          </cell>
+          <cell r="X2">
+            <v>0</v>
+          </cell>
+          <cell r="Y2">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>0</v>
+          </cell>
+          <cell r="C3">
+            <v>3.4612704918032786E-5</v>
+          </cell>
+          <cell r="D3">
+            <v>0</v>
+          </cell>
+          <cell r="E3">
+            <v>0</v>
+          </cell>
+          <cell r="F3">
+            <v>0</v>
+          </cell>
+          <cell r="G3">
+            <v>0</v>
+          </cell>
+          <cell r="H3">
+            <v>0</v>
+          </cell>
+          <cell r="I3">
+            <v>9.9320532786885234E-3</v>
+          </cell>
+          <cell r="J3">
+            <v>0.19398216393442622</v>
+          </cell>
+          <cell r="K3">
+            <v>0.46145520491803282</v>
+          </cell>
+          <cell r="L3">
+            <v>0.61135364098360656</v>
+          </cell>
+          <cell r="M3">
+            <v>0.76751488524590161</v>
+          </cell>
+          <cell r="N3">
+            <v>0.91148434426229497</v>
+          </cell>
+          <cell r="O3">
+            <v>0.7606537090163934</v>
+          </cell>
+          <cell r="P3">
+            <v>0.52453274999999999</v>
+          </cell>
+          <cell r="Q3">
+            <v>0.26193729180327868</v>
+          </cell>
+          <cell r="R3">
+            <v>5.5153573770491793E-2</v>
+          </cell>
+          <cell r="S3">
+            <v>3.3324590163934416E-4</v>
+          </cell>
+          <cell r="T3">
+            <v>1.47E-4</v>
+          </cell>
+          <cell r="U3">
+            <v>0</v>
+          </cell>
+          <cell r="V3">
+            <v>0</v>
+          </cell>
+          <cell r="W3">
+            <v>0</v>
+          </cell>
+          <cell r="X3">
+            <v>0</v>
+          </cell>
+          <cell r="Y3">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>0</v>
+          </cell>
+          <cell r="C4">
+            <v>0</v>
+          </cell>
+          <cell r="D4">
+            <v>0</v>
+          </cell>
+          <cell r="E4">
+            <v>0</v>
+          </cell>
+          <cell r="F4">
+            <v>0</v>
+          </cell>
+          <cell r="G4">
+            <v>0</v>
+          </cell>
+          <cell r="H4">
+            <v>0</v>
+          </cell>
+          <cell r="I4">
+            <v>1.024310301189572E-2</v>
+          </cell>
+          <cell r="J4">
+            <v>0.22186521924829156</v>
+          </cell>
+          <cell r="K4">
+            <v>0.52074370412553772</v>
+          </cell>
+          <cell r="L4">
+            <v>0.769133504176158</v>
+          </cell>
+          <cell r="M4">
+            <v>0.80424794514047049</v>
+          </cell>
+          <cell r="N4">
+            <v>0.71036845102505675</v>
+          </cell>
+          <cell r="O4">
+            <v>0.57007472475322696</v>
+          </cell>
+          <cell r="P4">
+            <v>0.45698721336370535</v>
+          </cell>
+          <cell r="Q4">
+            <v>0.1954214502657555</v>
+          </cell>
+          <cell r="R4">
+            <v>3.4501010820045551E-2</v>
+          </cell>
+          <cell r="S4">
+            <v>5.642875221462921E-5</v>
+          </cell>
+          <cell r="T4">
+            <v>0</v>
+          </cell>
+          <cell r="U4">
+            <v>0</v>
+          </cell>
+          <cell r="V4">
+            <v>0</v>
+          </cell>
+          <cell r="W4">
+            <v>0</v>
+          </cell>
+          <cell r="X4">
+            <v>0</v>
+          </cell>
+          <cell r="Y4">
+            <v>0</v>
           </cell>
         </row>
       </sheetData>
@@ -16138,7 +16588,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -16198,7 +16648,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <f>SUM('RES installed'!C2:C11)</f>
+        <f>SUM('RES installed'!C2:C10)</f>
         <v>0</v>
       </c>
     </row>
@@ -19594,7 +20044,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AF6F093-B7AC-40A9-A534-6EB116A66448}">
-  <dimension ref="A1:Y21"/>
+  <dimension ref="A1:Y20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
@@ -20454,75 +20904,99 @@
         <v>11</v>
       </c>
       <c r="B12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!B$2</f>
         <v>0</v>
       </c>
       <c r="C12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!C$2</f>
         <v>0</v>
       </c>
       <c r="D12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!D$2</f>
         <v>0</v>
       </c>
       <c r="E12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!E$2</f>
         <v>0</v>
       </c>
       <c r="F12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!F$2</f>
         <v>0</v>
       </c>
       <c r="G12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!G$2</f>
         <v>0</v>
       </c>
       <c r="H12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!H$2</f>
         <v>0</v>
       </c>
       <c r="I12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!I$2</f>
         <v>0</v>
       </c>
       <c r="J12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!J$2</f>
         <v>0</v>
       </c>
       <c r="K12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!K$2</f>
         <v>0</v>
       </c>
       <c r="L12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!L$2</f>
         <v>0</v>
       </c>
       <c r="M12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!M$2</f>
         <v>0</v>
       </c>
       <c r="N12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!N$2</f>
         <v>0</v>
       </c>
       <c r="O12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!O$2</f>
         <v>0</v>
       </c>
       <c r="P12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!P$2</f>
         <v>0</v>
       </c>
       <c r="Q12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!Q$2</f>
         <v>0</v>
       </c>
       <c r="R12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!R$2</f>
         <v>0</v>
       </c>
       <c r="S12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!S$2</f>
         <v>0</v>
       </c>
       <c r="T12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!T$2</f>
         <v>0</v>
       </c>
       <c r="U12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!U$2</f>
         <v>0</v>
       </c>
       <c r="V12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!V$2</f>
         <v>0</v>
       </c>
       <c r="W12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!W$2</f>
         <v>0</v>
       </c>
       <c r="X12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!X$2</f>
         <v>0</v>
       </c>
       <c r="Y12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!Y$2</f>
         <v>0</v>
       </c>
     </row>
@@ -20531,75 +21005,99 @@
         <v>12</v>
       </c>
       <c r="B13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!B$2</f>
         <v>0</v>
       </c>
       <c r="C13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!C$2</f>
         <v>0</v>
       </c>
       <c r="D13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!D$2</f>
         <v>0</v>
       </c>
       <c r="E13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!E$2</f>
         <v>0</v>
       </c>
       <c r="F13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!F$2</f>
         <v>0</v>
       </c>
       <c r="G13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!G$2</f>
         <v>0</v>
       </c>
       <c r="H13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!H$2</f>
         <v>0</v>
       </c>
       <c r="I13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!I$2</f>
         <v>0</v>
       </c>
       <c r="J13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!J$2</f>
         <v>0</v>
       </c>
       <c r="K13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!K$2</f>
         <v>0</v>
       </c>
       <c r="L13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!L$2</f>
         <v>0</v>
       </c>
       <c r="M13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!M$2</f>
         <v>0</v>
       </c>
       <c r="N13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!N$2</f>
         <v>0</v>
       </c>
       <c r="O13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!O$2</f>
         <v>0</v>
       </c>
       <c r="P13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!P$2</f>
         <v>0</v>
       </c>
       <c r="Q13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!Q$2</f>
         <v>0</v>
       </c>
       <c r="R13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!R$2</f>
         <v>0</v>
       </c>
       <c r="S13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!S$2</f>
         <v>0</v>
       </c>
       <c r="T13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!T$2</f>
         <v>0</v>
       </c>
       <c r="U13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!U$2</f>
         <v>0</v>
       </c>
       <c r="V13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!V$2</f>
         <v>0</v>
       </c>
       <c r="W13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!W$2</f>
         <v>0</v>
       </c>
       <c r="X13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!X$2</f>
         <v>0</v>
       </c>
       <c r="Y13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!Y$2</f>
         <v>0</v>
       </c>
     </row>
@@ -20608,75 +21106,99 @@
         <v>13</v>
       </c>
       <c r="B14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!B$2</f>
         <v>0</v>
       </c>
       <c r="C14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!C$2</f>
         <v>0</v>
       </c>
       <c r="D14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!D$2</f>
         <v>0</v>
       </c>
       <c r="E14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!E$2</f>
         <v>0</v>
       </c>
       <c r="F14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!F$2</f>
         <v>0</v>
       </c>
       <c r="G14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!G$2</f>
         <v>0</v>
       </c>
       <c r="H14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!H$2</f>
         <v>0</v>
       </c>
       <c r="I14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!I$2</f>
         <v>0</v>
       </c>
       <c r="J14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!J$2</f>
         <v>0</v>
       </c>
       <c r="K14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!K$2</f>
         <v>0</v>
       </c>
       <c r="L14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!L$2</f>
         <v>0</v>
       </c>
       <c r="M14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!M$2</f>
         <v>0</v>
       </c>
       <c r="N14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!N$2</f>
         <v>0</v>
       </c>
       <c r="O14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!O$2</f>
         <v>0</v>
       </c>
       <c r="P14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!P$2</f>
         <v>0</v>
       </c>
       <c r="Q14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!Q$2</f>
         <v>0</v>
       </c>
       <c r="R14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!R$2</f>
         <v>0</v>
       </c>
       <c r="S14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!S$2</f>
         <v>0</v>
       </c>
       <c r="T14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!T$2</f>
         <v>0</v>
       </c>
       <c r="U14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!U$2</f>
         <v>0</v>
       </c>
       <c r="V14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!V$2</f>
         <v>0</v>
       </c>
       <c r="W14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!W$2</f>
         <v>0</v>
       </c>
       <c r="X14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!X$2</f>
         <v>0</v>
       </c>
       <c r="Y14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!Y$2</f>
         <v>0</v>
       </c>
     </row>
@@ -20685,75 +21207,99 @@
         <v>14</v>
       </c>
       <c r="B15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!B$2</f>
         <v>0</v>
       </c>
       <c r="C15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!C$2</f>
         <v>0</v>
       </c>
       <c r="D15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!D$2</f>
         <v>0</v>
       </c>
       <c r="E15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!E$2</f>
         <v>0</v>
       </c>
       <c r="F15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!F$2</f>
         <v>0</v>
       </c>
       <c r="G15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!G$2</f>
         <v>0</v>
       </c>
       <c r="H15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!H$2</f>
         <v>0</v>
       </c>
       <c r="I15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!I$2</f>
         <v>0</v>
       </c>
       <c r="J15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!J$2</f>
         <v>0</v>
       </c>
       <c r="K15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!K$2</f>
         <v>0</v>
       </c>
       <c r="L15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!L$2</f>
         <v>0</v>
       </c>
       <c r="M15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!M$2</f>
         <v>0</v>
       </c>
       <c r="N15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!N$2</f>
         <v>0</v>
       </c>
       <c r="O15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!O$2</f>
         <v>0</v>
       </c>
       <c r="P15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!P$2</f>
         <v>0</v>
       </c>
       <c r="Q15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!Q$2</f>
         <v>0</v>
       </c>
       <c r="R15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!R$2</f>
         <v>0</v>
       </c>
       <c r="S15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!S$2</f>
         <v>0</v>
       </c>
       <c r="T15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!T$2</f>
         <v>0</v>
       </c>
       <c r="U15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!U$2</f>
         <v>0</v>
       </c>
       <c r="V15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!V$2</f>
         <v>0</v>
       </c>
       <c r="W15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!W$2</f>
         <v>0</v>
       </c>
       <c r="X15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!X$2</f>
         <v>0</v>
       </c>
       <c r="Y15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!Y$2</f>
         <v>0</v>
       </c>
     </row>
@@ -20762,75 +21308,99 @@
         <v>15</v>
       </c>
       <c r="B16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!B$2</f>
         <v>0</v>
       </c>
       <c r="C16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!C$2</f>
         <v>0</v>
       </c>
       <c r="D16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!D$2</f>
         <v>0</v>
       </c>
       <c r="E16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!E$2</f>
         <v>0</v>
       </c>
       <c r="F16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!F$2</f>
         <v>0</v>
       </c>
       <c r="G16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!G$2</f>
         <v>0</v>
       </c>
       <c r="H16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!H$2</f>
         <v>0</v>
       </c>
       <c r="I16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!I$2</f>
         <v>0</v>
       </c>
       <c r="J16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!J$2</f>
         <v>0</v>
       </c>
       <c r="K16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!K$2</f>
         <v>0</v>
       </c>
       <c r="L16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!L$2</f>
         <v>0</v>
       </c>
       <c r="M16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!M$2</f>
         <v>0</v>
       </c>
       <c r="N16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!N$2</f>
         <v>0</v>
       </c>
       <c r="O16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!O$2</f>
         <v>0</v>
       </c>
       <c r="P16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!P$2</f>
         <v>0</v>
       </c>
       <c r="Q16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!Q$2</f>
         <v>0</v>
       </c>
       <c r="R16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!R$2</f>
         <v>0</v>
       </c>
       <c r="S16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!S$2</f>
         <v>0</v>
       </c>
       <c r="T16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!T$2</f>
         <v>0</v>
       </c>
       <c r="U16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!U$2</f>
         <v>0</v>
       </c>
       <c r="V16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!V$2</f>
         <v>0</v>
       </c>
       <c r="W16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!W$2</f>
         <v>0</v>
       </c>
       <c r="X16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!X$2</f>
         <v>0</v>
       </c>
       <c r="Y16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!Y$2</f>
         <v>0</v>
       </c>
     </row>
@@ -20839,75 +21409,99 @@
         <v>16</v>
       </c>
       <c r="B17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!B$2</f>
         <v>0</v>
       </c>
       <c r="C17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!C$2</f>
         <v>0</v>
       </c>
       <c r="D17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!D$2</f>
         <v>0</v>
       </c>
       <c r="E17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!E$2</f>
         <v>0</v>
       </c>
       <c r="F17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!F$2</f>
         <v>0</v>
       </c>
       <c r="G17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!G$2</f>
         <v>0</v>
       </c>
       <c r="H17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!H$2</f>
         <v>0</v>
       </c>
       <c r="I17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!I$2</f>
         <v>0</v>
       </c>
       <c r="J17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!J$2</f>
         <v>0</v>
       </c>
       <c r="K17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!K$2</f>
         <v>0</v>
       </c>
       <c r="L17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!L$2</f>
         <v>0</v>
       </c>
       <c r="M17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!M$2</f>
         <v>0</v>
       </c>
       <c r="N17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!N$2</f>
         <v>0</v>
       </c>
       <c r="O17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!O$2</f>
         <v>0</v>
       </c>
       <c r="P17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!P$2</f>
         <v>0</v>
       </c>
       <c r="Q17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!Q$2</f>
         <v>0</v>
       </c>
       <c r="R17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!R$2</f>
         <v>0</v>
       </c>
       <c r="S17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!S$2</f>
         <v>0</v>
       </c>
       <c r="T17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!T$2</f>
         <v>0</v>
       </c>
       <c r="U17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!U$2</f>
         <v>0</v>
       </c>
       <c r="V17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!V$2</f>
         <v>0</v>
       </c>
       <c r="W17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!W$2</f>
         <v>0</v>
       </c>
       <c r="X17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!X$2</f>
         <v>0</v>
       </c>
       <c r="Y17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!Y$2</f>
         <v>0</v>
       </c>
     </row>
@@ -20916,75 +21510,99 @@
         <v>17</v>
       </c>
       <c r="B18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!B$2</f>
         <v>0</v>
       </c>
       <c r="C18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!C$2</f>
         <v>0</v>
       </c>
       <c r="D18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!D$2</f>
         <v>0</v>
       </c>
       <c r="E18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!E$2</f>
         <v>0</v>
       </c>
       <c r="F18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!F$2</f>
         <v>0</v>
       </c>
       <c r="G18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!G$2</f>
         <v>0</v>
       </c>
       <c r="H18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!H$2</f>
         <v>0</v>
       </c>
       <c r="I18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!I$2</f>
         <v>0</v>
       </c>
       <c r="J18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!J$2</f>
         <v>0</v>
       </c>
       <c r="K18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!K$2</f>
         <v>0</v>
       </c>
       <c r="L18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!L$2</f>
         <v>0</v>
       </c>
       <c r="M18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!M$2</f>
         <v>0</v>
       </c>
       <c r="N18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!N$2</f>
         <v>0</v>
       </c>
       <c r="O18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!O$2</f>
         <v>0</v>
       </c>
       <c r="P18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!P$2</f>
         <v>0</v>
       </c>
       <c r="Q18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!Q$2</f>
         <v>0</v>
       </c>
       <c r="R18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!R$2</f>
         <v>0</v>
       </c>
       <c r="S18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!S$2</f>
         <v>0</v>
       </c>
       <c r="T18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!T$2</f>
         <v>0</v>
       </c>
       <c r="U18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!U$2</f>
         <v>0</v>
       </c>
       <c r="V18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!V$2</f>
         <v>0</v>
       </c>
       <c r="W18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!W$2</f>
         <v>0</v>
       </c>
       <c r="X18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!X$2</f>
         <v>0</v>
       </c>
       <c r="Y18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!Y$2</f>
         <v>0</v>
       </c>
     </row>
@@ -20993,75 +21611,99 @@
         <v>18</v>
       </c>
       <c r="B19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!B$2</f>
         <v>0</v>
       </c>
       <c r="C19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!C$2</f>
         <v>0</v>
       </c>
       <c r="D19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!D$2</f>
         <v>0</v>
       </c>
       <c r="E19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!E$2</f>
         <v>0</v>
       </c>
       <c r="F19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!F$2</f>
         <v>0</v>
       </c>
       <c r="G19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!G$2</f>
         <v>0</v>
       </c>
       <c r="H19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!H$2</f>
         <v>0</v>
       </c>
       <c r="I19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!I$2</f>
         <v>0</v>
       </c>
       <c r="J19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!J$2</f>
         <v>0</v>
       </c>
       <c r="K19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!K$2</f>
         <v>0</v>
       </c>
       <c r="L19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!L$2</f>
         <v>0</v>
       </c>
       <c r="M19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!M$2</f>
         <v>0</v>
       </c>
       <c r="N19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!N$2</f>
         <v>0</v>
       </c>
       <c r="O19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!O$2</f>
         <v>0</v>
       </c>
       <c r="P19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!P$2</f>
         <v>0</v>
       </c>
       <c r="Q19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!Q$2</f>
         <v>0</v>
       </c>
       <c r="R19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!R$2</f>
         <v>0</v>
       </c>
       <c r="S19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!S$2</f>
         <v>0</v>
       </c>
       <c r="T19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!T$2</f>
         <v>0</v>
       </c>
       <c r="U19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!U$2</f>
         <v>0</v>
       </c>
       <c r="V19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!V$2</f>
         <v>0</v>
       </c>
       <c r="W19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!W$2</f>
         <v>0</v>
       </c>
       <c r="X19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!X$2</f>
         <v>0</v>
       </c>
       <c r="Y19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!Y$2</f>
         <v>0</v>
       </c>
     </row>
@@ -21070,152 +21712,99 @@
         <v>19</v>
       </c>
       <c r="B20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!B$2</f>
         <v>0</v>
       </c>
       <c r="C20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!C$2</f>
         <v>0</v>
       </c>
       <c r="D20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!D$2</f>
         <v>0</v>
       </c>
       <c r="E20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!E$2</f>
         <v>0</v>
       </c>
       <c r="F20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!F$2</f>
         <v>0</v>
       </c>
       <c r="G20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!G$2</f>
         <v>0</v>
       </c>
       <c r="H20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!H$2</f>
         <v>0</v>
       </c>
       <c r="I20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!I$2</f>
         <v>0</v>
       </c>
       <c r="J20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!J$2</f>
         <v>0</v>
       </c>
       <c r="K20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!K$2</f>
         <v>0</v>
       </c>
       <c r="L20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!L$2</f>
         <v>0</v>
       </c>
       <c r="M20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!M$2</f>
         <v>0</v>
       </c>
       <c r="N20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!N$2</f>
         <v>0</v>
       </c>
       <c r="O20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!O$2</f>
         <v>0</v>
       </c>
       <c r="P20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!P$2</f>
         <v>0</v>
       </c>
       <c r="Q20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!Q$2</f>
         <v>0</v>
       </c>
       <c r="R20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!R$2</f>
         <v>0</v>
       </c>
       <c r="S20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!S$2</f>
         <v>0</v>
       </c>
       <c r="T20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!T$2</f>
         <v>0</v>
       </c>
       <c r="U20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!U$2</f>
         <v>0</v>
       </c>
       <c r="V20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!V$2</f>
         <v>0</v>
       </c>
       <c r="W20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!W$2</f>
         <v>0</v>
       </c>
       <c r="X20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!X$2</f>
         <v>0</v>
       </c>
       <c r="Y20" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>20</v>
-      </c>
-      <c r="B21" s="4">
-        <v>0</v>
-      </c>
-      <c r="C21" s="4">
-        <v>0</v>
-      </c>
-      <c r="D21" s="4">
-        <v>0</v>
-      </c>
-      <c r="E21" s="4">
-        <v>0</v>
-      </c>
-      <c r="F21" s="4">
-        <v>0</v>
-      </c>
-      <c r="G21" s="4">
-        <v>0</v>
-      </c>
-      <c r="H21" s="4">
-        <v>0</v>
-      </c>
-      <c r="I21" s="4">
-        <v>0</v>
-      </c>
-      <c r="J21" s="4">
-        <v>0</v>
-      </c>
-      <c r="K21" s="4">
-        <v>0</v>
-      </c>
-      <c r="L21" s="4">
-        <v>0</v>
-      </c>
-      <c r="M21" s="4">
-        <v>0</v>
-      </c>
-      <c r="N21" s="4">
-        <v>0</v>
-      </c>
-      <c r="O21" s="4">
-        <v>0</v>
-      </c>
-      <c r="P21" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="4">
-        <v>0</v>
-      </c>
-      <c r="R21" s="4">
-        <v>0</v>
-      </c>
-      <c r="S21" s="4">
-        <v>0</v>
-      </c>
-      <c r="T21" s="4">
-        <v>0</v>
-      </c>
-      <c r="U21" s="4">
-        <v>0</v>
-      </c>
-      <c r="V21" s="4">
-        <v>0</v>
-      </c>
-      <c r="W21" s="4">
-        <v>0</v>
-      </c>
-      <c r="X21" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!Y$2</f>
         <v>0</v>
       </c>
     </row>
@@ -21226,7 +21815,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFB086F3-3A69-46AC-9274-971760AC5758}">
-  <dimension ref="A1:Y21"/>
+  <dimension ref="A1:Y20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
@@ -22086,75 +22675,99 @@
         <v>11</v>
       </c>
       <c r="B12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!B$3</f>
         <v>0</v>
       </c>
       <c r="C12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!C$3</f>
         <v>0</v>
       </c>
       <c r="D12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!D$3</f>
         <v>0</v>
       </c>
       <c r="E12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!E$3</f>
         <v>0</v>
       </c>
       <c r="F12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!F$3</f>
         <v>0</v>
       </c>
       <c r="G12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!G$3</f>
         <v>0</v>
       </c>
       <c r="H12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!H$3</f>
         <v>0</v>
       </c>
       <c r="I12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!I$3</f>
         <v>0</v>
       </c>
       <c r="J12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!J$3</f>
         <v>0</v>
       </c>
       <c r="K12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!K$3</f>
         <v>0</v>
       </c>
       <c r="L12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!L$3</f>
         <v>0</v>
       </c>
       <c r="M12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!M$3</f>
         <v>0</v>
       </c>
       <c r="N12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!N$3</f>
         <v>0</v>
       </c>
       <c r="O12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!O$3</f>
         <v>0</v>
       </c>
       <c r="P12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!P$3</f>
         <v>0</v>
       </c>
       <c r="Q12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!Q$3</f>
         <v>0</v>
       </c>
       <c r="R12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!R$3</f>
         <v>0</v>
       </c>
       <c r="S12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!S$3</f>
         <v>0</v>
       </c>
       <c r="T12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!T$3</f>
         <v>0</v>
       </c>
       <c r="U12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!U$3</f>
         <v>0</v>
       </c>
       <c r="V12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!V$3</f>
         <v>0</v>
       </c>
       <c r="W12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!W$3</f>
         <v>0</v>
       </c>
       <c r="X12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!X$3</f>
         <v>0</v>
       </c>
       <c r="Y12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!Y$3</f>
         <v>0</v>
       </c>
     </row>
@@ -22163,75 +22776,99 @@
         <v>12</v>
       </c>
       <c r="B13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!B$3</f>
         <v>0</v>
       </c>
       <c r="C13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!C$3</f>
         <v>0</v>
       </c>
       <c r="D13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!D$3</f>
         <v>0</v>
       </c>
       <c r="E13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!E$3</f>
         <v>0</v>
       </c>
       <c r="F13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!F$3</f>
         <v>0</v>
       </c>
       <c r="G13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!G$3</f>
         <v>0</v>
       </c>
       <c r="H13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!H$3</f>
         <v>0</v>
       </c>
       <c r="I13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!I$3</f>
         <v>0</v>
       </c>
       <c r="J13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!J$3</f>
         <v>0</v>
       </c>
       <c r="K13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!K$3</f>
         <v>0</v>
       </c>
       <c r="L13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!L$3</f>
         <v>0</v>
       </c>
       <c r="M13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!M$3</f>
         <v>0</v>
       </c>
       <c r="N13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!N$3</f>
         <v>0</v>
       </c>
       <c r="O13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!O$3</f>
         <v>0</v>
       </c>
       <c r="P13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!P$3</f>
         <v>0</v>
       </c>
       <c r="Q13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!Q$3</f>
         <v>0</v>
       </c>
       <c r="R13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!R$3</f>
         <v>0</v>
       </c>
       <c r="S13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!S$3</f>
         <v>0</v>
       </c>
       <c r="T13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!T$3</f>
         <v>0</v>
       </c>
       <c r="U13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!U$3</f>
         <v>0</v>
       </c>
       <c r="V13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!V$3</f>
         <v>0</v>
       </c>
       <c r="W13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!W$3</f>
         <v>0</v>
       </c>
       <c r="X13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!X$3</f>
         <v>0</v>
       </c>
       <c r="Y13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!Y$3</f>
         <v>0</v>
       </c>
     </row>
@@ -22240,75 +22877,99 @@
         <v>13</v>
       </c>
       <c r="B14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!B$3</f>
         <v>0</v>
       </c>
       <c r="C14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!C$3</f>
         <v>0</v>
       </c>
       <c r="D14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!D$3</f>
         <v>0</v>
       </c>
       <c r="E14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!E$3</f>
         <v>0</v>
       </c>
       <c r="F14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!F$3</f>
         <v>0</v>
       </c>
       <c r="G14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!G$3</f>
         <v>0</v>
       </c>
       <c r="H14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!H$3</f>
         <v>0</v>
       </c>
       <c r="I14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!I$3</f>
         <v>0</v>
       </c>
       <c r="J14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!J$3</f>
         <v>0</v>
       </c>
       <c r="K14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!K$3</f>
         <v>0</v>
       </c>
       <c r="L14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!L$3</f>
         <v>0</v>
       </c>
       <c r="M14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!M$3</f>
         <v>0</v>
       </c>
       <c r="N14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!N$3</f>
         <v>0</v>
       </c>
       <c r="O14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!O$3</f>
         <v>0</v>
       </c>
       <c r="P14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!P$3</f>
         <v>0</v>
       </c>
       <c r="Q14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!Q$3</f>
         <v>0</v>
       </c>
       <c r="R14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!R$3</f>
         <v>0</v>
       </c>
       <c r="S14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!S$3</f>
         <v>0</v>
       </c>
       <c r="T14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!T$3</f>
         <v>0</v>
       </c>
       <c r="U14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!U$3</f>
         <v>0</v>
       </c>
       <c r="V14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!V$3</f>
         <v>0</v>
       </c>
       <c r="W14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!W$3</f>
         <v>0</v>
       </c>
       <c r="X14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!X$3</f>
         <v>0</v>
       </c>
       <c r="Y14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!Y$3</f>
         <v>0</v>
       </c>
     </row>
@@ -22317,75 +22978,99 @@
         <v>14</v>
       </c>
       <c r="B15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!B$3</f>
         <v>0</v>
       </c>
       <c r="C15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!C$3</f>
         <v>0</v>
       </c>
       <c r="D15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!D$3</f>
         <v>0</v>
       </c>
       <c r="E15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!E$3</f>
         <v>0</v>
       </c>
       <c r="F15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!F$3</f>
         <v>0</v>
       </c>
       <c r="G15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!G$3</f>
         <v>0</v>
       </c>
       <c r="H15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!H$3</f>
         <v>0</v>
       </c>
       <c r="I15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!I$3</f>
         <v>0</v>
       </c>
       <c r="J15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!J$3</f>
         <v>0</v>
       </c>
       <c r="K15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!K$3</f>
         <v>0</v>
       </c>
       <c r="L15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!L$3</f>
         <v>0</v>
       </c>
       <c r="M15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!M$3</f>
         <v>0</v>
       </c>
       <c r="N15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!N$3</f>
         <v>0</v>
       </c>
       <c r="O15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!O$3</f>
         <v>0</v>
       </c>
       <c r="P15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!P$3</f>
         <v>0</v>
       </c>
       <c r="Q15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!Q$3</f>
         <v>0</v>
       </c>
       <c r="R15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!R$3</f>
         <v>0</v>
       </c>
       <c r="S15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!S$3</f>
         <v>0</v>
       </c>
       <c r="T15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!T$3</f>
         <v>0</v>
       </c>
       <c r="U15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!U$3</f>
         <v>0</v>
       </c>
       <c r="V15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!V$3</f>
         <v>0</v>
       </c>
       <c r="W15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!W$3</f>
         <v>0</v>
       </c>
       <c r="X15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!X$3</f>
         <v>0</v>
       </c>
       <c r="Y15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!Y$3</f>
         <v>0</v>
       </c>
     </row>
@@ -22394,75 +23079,99 @@
         <v>15</v>
       </c>
       <c r="B16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!B$3</f>
         <v>0</v>
       </c>
       <c r="C16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!C$3</f>
         <v>0</v>
       </c>
       <c r="D16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!D$3</f>
         <v>0</v>
       </c>
       <c r="E16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!E$3</f>
         <v>0</v>
       </c>
       <c r="F16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!F$3</f>
         <v>0</v>
       </c>
       <c r="G16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!G$3</f>
         <v>0</v>
       </c>
       <c r="H16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!H$3</f>
         <v>0</v>
       </c>
       <c r="I16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!I$3</f>
         <v>0</v>
       </c>
       <c r="J16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!J$3</f>
         <v>0</v>
       </c>
       <c r="K16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!K$3</f>
         <v>0</v>
       </c>
       <c r="L16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!L$3</f>
         <v>0</v>
       </c>
       <c r="M16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!M$3</f>
         <v>0</v>
       </c>
       <c r="N16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!N$3</f>
         <v>0</v>
       </c>
       <c r="O16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!O$3</f>
         <v>0</v>
       </c>
       <c r="P16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!P$3</f>
         <v>0</v>
       </c>
       <c r="Q16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!Q$3</f>
         <v>0</v>
       </c>
       <c r="R16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!R$3</f>
         <v>0</v>
       </c>
       <c r="S16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!S$3</f>
         <v>0</v>
       </c>
       <c r="T16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!T$3</f>
         <v>0</v>
       </c>
       <c r="U16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!U$3</f>
         <v>0</v>
       </c>
       <c r="V16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!V$3</f>
         <v>0</v>
       </c>
       <c r="W16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!W$3</f>
         <v>0</v>
       </c>
       <c r="X16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!X$3</f>
         <v>0</v>
       </c>
       <c r="Y16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!Y$3</f>
         <v>0</v>
       </c>
     </row>
@@ -22471,75 +23180,99 @@
         <v>16</v>
       </c>
       <c r="B17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!B$3</f>
         <v>0</v>
       </c>
       <c r="C17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!C$3</f>
         <v>0</v>
       </c>
       <c r="D17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!D$3</f>
         <v>0</v>
       </c>
       <c r="E17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!E$3</f>
         <v>0</v>
       </c>
       <c r="F17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!F$3</f>
         <v>0</v>
       </c>
       <c r="G17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!G$3</f>
         <v>0</v>
       </c>
       <c r="H17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!H$3</f>
         <v>0</v>
       </c>
       <c r="I17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!I$3</f>
         <v>0</v>
       </c>
       <c r="J17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!J$3</f>
         <v>0</v>
       </c>
       <c r="K17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!K$3</f>
         <v>0</v>
       </c>
       <c r="L17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!L$3</f>
         <v>0</v>
       </c>
       <c r="M17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!M$3</f>
         <v>0</v>
       </c>
       <c r="N17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!N$3</f>
         <v>0</v>
       </c>
       <c r="O17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!O$3</f>
         <v>0</v>
       </c>
       <c r="P17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!P$3</f>
         <v>0</v>
       </c>
       <c r="Q17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!Q$3</f>
         <v>0</v>
       </c>
       <c r="R17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!R$3</f>
         <v>0</v>
       </c>
       <c r="S17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!S$3</f>
         <v>0</v>
       </c>
       <c r="T17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!T$3</f>
         <v>0</v>
       </c>
       <c r="U17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!U$3</f>
         <v>0</v>
       </c>
       <c r="V17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!V$3</f>
         <v>0</v>
       </c>
       <c r="W17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!W$3</f>
         <v>0</v>
       </c>
       <c r="X17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!X$3</f>
         <v>0</v>
       </c>
       <c r="Y17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!Y$3</f>
         <v>0</v>
       </c>
     </row>
@@ -22548,75 +23281,99 @@
         <v>17</v>
       </c>
       <c r="B18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!B$3</f>
         <v>0</v>
       </c>
       <c r="C18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!C$3</f>
         <v>0</v>
       </c>
       <c r="D18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!D$3</f>
         <v>0</v>
       </c>
       <c r="E18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!E$3</f>
         <v>0</v>
       </c>
       <c r="F18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!F$3</f>
         <v>0</v>
       </c>
       <c r="G18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!G$3</f>
         <v>0</v>
       </c>
       <c r="H18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!H$3</f>
         <v>0</v>
       </c>
       <c r="I18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!I$3</f>
         <v>0</v>
       </c>
       <c r="J18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!J$3</f>
         <v>0</v>
       </c>
       <c r="K18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!K$3</f>
         <v>0</v>
       </c>
       <c r="L18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!L$3</f>
         <v>0</v>
       </c>
       <c r="M18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!M$3</f>
         <v>0</v>
       </c>
       <c r="N18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!N$3</f>
         <v>0</v>
       </c>
       <c r="O18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!O$3</f>
         <v>0</v>
       </c>
       <c r="P18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!P$3</f>
         <v>0</v>
       </c>
       <c r="Q18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!Q$3</f>
         <v>0</v>
       </c>
       <c r="R18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!R$3</f>
         <v>0</v>
       </c>
       <c r="S18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!S$3</f>
         <v>0</v>
       </c>
       <c r="T18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!T$3</f>
         <v>0</v>
       </c>
       <c r="U18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!U$3</f>
         <v>0</v>
       </c>
       <c r="V18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!V$3</f>
         <v>0</v>
       </c>
       <c r="W18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!W$3</f>
         <v>0</v>
       </c>
       <c r="X18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!X$3</f>
         <v>0</v>
       </c>
       <c r="Y18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!Y$3</f>
         <v>0</v>
       </c>
     </row>
@@ -22625,75 +23382,99 @@
         <v>18</v>
       </c>
       <c r="B19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!B$3</f>
         <v>0</v>
       </c>
       <c r="C19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!C$3</f>
         <v>0</v>
       </c>
       <c r="D19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!D$3</f>
         <v>0</v>
       </c>
       <c r="E19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!E$3</f>
         <v>0</v>
       </c>
       <c r="F19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!F$3</f>
         <v>0</v>
       </c>
       <c r="G19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!G$3</f>
         <v>0</v>
       </c>
       <c r="H19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!H$3</f>
         <v>0</v>
       </c>
       <c r="I19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!I$3</f>
         <v>0</v>
       </c>
       <c r="J19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!J$3</f>
         <v>0</v>
       </c>
       <c r="K19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!K$3</f>
         <v>0</v>
       </c>
       <c r="L19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!L$3</f>
         <v>0</v>
       </c>
       <c r="M19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!M$3</f>
         <v>0</v>
       </c>
       <c r="N19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!N$3</f>
         <v>0</v>
       </c>
       <c r="O19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!O$3</f>
         <v>0</v>
       </c>
       <c r="P19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!P$3</f>
         <v>0</v>
       </c>
       <c r="Q19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!Q$3</f>
         <v>0</v>
       </c>
       <c r="R19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!R$3</f>
         <v>0</v>
       </c>
       <c r="S19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!S$3</f>
         <v>0</v>
       </c>
       <c r="T19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!T$3</f>
         <v>0</v>
       </c>
       <c r="U19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!U$3</f>
         <v>0</v>
       </c>
       <c r="V19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!V$3</f>
         <v>0</v>
       </c>
       <c r="W19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!W$3</f>
         <v>0</v>
       </c>
       <c r="X19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!X$3</f>
         <v>0</v>
       </c>
       <c r="Y19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!Y$3</f>
         <v>0</v>
       </c>
     </row>
@@ -22702,152 +23483,99 @@
         <v>19</v>
       </c>
       <c r="B20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!B$3</f>
         <v>0</v>
       </c>
       <c r="C20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!C$3</f>
         <v>0</v>
       </c>
       <c r="D20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!D$3</f>
         <v>0</v>
       </c>
       <c r="E20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!E$3</f>
         <v>0</v>
       </c>
       <c r="F20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!F$3</f>
         <v>0</v>
       </c>
       <c r="G20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!G$3</f>
         <v>0</v>
       </c>
       <c r="H20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!H$3</f>
         <v>0</v>
       </c>
       <c r="I20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!I$3</f>
         <v>0</v>
       </c>
       <c r="J20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!J$3</f>
         <v>0</v>
       </c>
       <c r="K20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!K$3</f>
         <v>0</v>
       </c>
       <c r="L20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!L$3</f>
         <v>0</v>
       </c>
       <c r="M20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!M$3</f>
         <v>0</v>
       </c>
       <c r="N20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!N$3</f>
         <v>0</v>
       </c>
       <c r="O20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!O$3</f>
         <v>0</v>
       </c>
       <c r="P20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!P$3</f>
         <v>0</v>
       </c>
       <c r="Q20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!Q$3</f>
         <v>0</v>
       </c>
       <c r="R20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!R$3</f>
         <v>0</v>
       </c>
       <c r="S20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!S$3</f>
         <v>0</v>
       </c>
       <c r="T20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!T$3</f>
         <v>0</v>
       </c>
       <c r="U20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!U$3</f>
         <v>0</v>
       </c>
       <c r="V20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!V$3</f>
         <v>0</v>
       </c>
       <c r="W20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!W$3</f>
         <v>0</v>
       </c>
       <c r="X20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!X$3</f>
         <v>0</v>
       </c>
       <c r="Y20" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>20</v>
-      </c>
-      <c r="B21" s="4">
-        <v>0</v>
-      </c>
-      <c r="C21" s="4">
-        <v>0</v>
-      </c>
-      <c r="D21" s="4">
-        <v>0</v>
-      </c>
-      <c r="E21" s="4">
-        <v>0</v>
-      </c>
-      <c r="F21" s="4">
-        <v>0</v>
-      </c>
-      <c r="G21" s="4">
-        <v>0</v>
-      </c>
-      <c r="H21" s="4">
-        <v>0</v>
-      </c>
-      <c r="I21" s="4">
-        <v>0</v>
-      </c>
-      <c r="J21" s="4">
-        <v>0</v>
-      </c>
-      <c r="K21" s="4">
-        <v>0</v>
-      </c>
-      <c r="L21" s="4">
-        <v>0</v>
-      </c>
-      <c r="M21" s="4">
-        <v>0</v>
-      </c>
-      <c r="N21" s="4">
-        <v>0</v>
-      </c>
-      <c r="O21" s="4">
-        <v>0</v>
-      </c>
-      <c r="P21" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="4">
-        <v>0</v>
-      </c>
-      <c r="R21" s="4">
-        <v>0</v>
-      </c>
-      <c r="S21" s="4">
-        <v>0</v>
-      </c>
-      <c r="T21" s="4">
-        <v>0</v>
-      </c>
-      <c r="U21" s="4">
-        <v>0</v>
-      </c>
-      <c r="V21" s="4">
-        <v>0</v>
-      </c>
-      <c r="W21" s="4">
-        <v>0</v>
-      </c>
-      <c r="X21" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!Y$3</f>
         <v>0</v>
       </c>
     </row>
@@ -22858,7 +23586,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0791ACC2-FCAC-4822-B397-86B1F05554D1}">
-  <dimension ref="A1:Y21"/>
+  <dimension ref="A1:Y20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
@@ -23718,75 +24446,99 @@
         <v>11</v>
       </c>
       <c r="B12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!B$4</f>
         <v>0</v>
       </c>
       <c r="C12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!C$4</f>
         <v>0</v>
       </c>
       <c r="D12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!D$4</f>
         <v>0</v>
       </c>
       <c r="E12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!E$4</f>
         <v>0</v>
       </c>
       <c r="F12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!F$4</f>
         <v>0</v>
       </c>
       <c r="G12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!G$4</f>
         <v>0</v>
       </c>
       <c r="H12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!H$4</f>
         <v>0</v>
       </c>
       <c r="I12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!I$4</f>
         <v>0</v>
       </c>
       <c r="J12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!J$4</f>
         <v>0</v>
       </c>
       <c r="K12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!K$4</f>
         <v>0</v>
       </c>
       <c r="L12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!L$4</f>
         <v>0</v>
       </c>
       <c r="M12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!M$4</f>
         <v>0</v>
       </c>
       <c r="N12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!N$4</f>
         <v>0</v>
       </c>
       <c r="O12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!O$4</f>
         <v>0</v>
       </c>
       <c r="P12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!P$4</f>
         <v>0</v>
       </c>
       <c r="Q12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!Q$4</f>
         <v>0</v>
       </c>
       <c r="R12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!R$4</f>
         <v>0</v>
       </c>
       <c r="S12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!S$4</f>
         <v>0</v>
       </c>
       <c r="T12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!T$4</f>
         <v>0</v>
       </c>
       <c r="U12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!U$4</f>
         <v>0</v>
       </c>
       <c r="V12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!V$4</f>
         <v>0</v>
       </c>
       <c r="W12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!W$4</f>
         <v>0</v>
       </c>
       <c r="X12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!X$4</f>
         <v>0</v>
       </c>
       <c r="Y12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!Y$4</f>
         <v>0</v>
       </c>
     </row>
@@ -23795,75 +24547,99 @@
         <v>12</v>
       </c>
       <c r="B13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!B$4</f>
         <v>0</v>
       </c>
       <c r="C13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!C$4</f>
         <v>0</v>
       </c>
       <c r="D13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!D$4</f>
         <v>0</v>
       </c>
       <c r="E13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!E$4</f>
         <v>0</v>
       </c>
       <c r="F13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!F$4</f>
         <v>0</v>
       </c>
       <c r="G13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!G$4</f>
         <v>0</v>
       </c>
       <c r="H13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!H$4</f>
         <v>0</v>
       </c>
       <c r="I13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!I$4</f>
         <v>0</v>
       </c>
       <c r="J13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!J$4</f>
         <v>0</v>
       </c>
       <c r="K13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!K$4</f>
         <v>0</v>
       </c>
       <c r="L13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!L$4</f>
         <v>0</v>
       </c>
       <c r="M13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!M$4</f>
         <v>0</v>
       </c>
       <c r="N13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!N$4</f>
         <v>0</v>
       </c>
       <c r="O13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!O$4</f>
         <v>0</v>
       </c>
       <c r="P13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!P$4</f>
         <v>0</v>
       </c>
       <c r="Q13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!Q$4</f>
         <v>0</v>
       </c>
       <c r="R13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!R$4</f>
         <v>0</v>
       </c>
       <c r="S13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!S$4</f>
         <v>0</v>
       </c>
       <c r="T13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!T$4</f>
         <v>0</v>
       </c>
       <c r="U13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!U$4</f>
         <v>0</v>
       </c>
       <c r="V13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!V$4</f>
         <v>0</v>
       </c>
       <c r="W13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!W$4</f>
         <v>0</v>
       </c>
       <c r="X13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!X$4</f>
         <v>0</v>
       </c>
       <c r="Y13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!Y$4</f>
         <v>0</v>
       </c>
     </row>
@@ -23872,75 +24648,99 @@
         <v>13</v>
       </c>
       <c r="B14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!B$4</f>
         <v>0</v>
       </c>
       <c r="C14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!C$4</f>
         <v>0</v>
       </c>
       <c r="D14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!D$4</f>
         <v>0</v>
       </c>
       <c r="E14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!E$4</f>
         <v>0</v>
       </c>
       <c r="F14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!F$4</f>
         <v>0</v>
       </c>
       <c r="G14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!G$4</f>
         <v>0</v>
       </c>
       <c r="H14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!H$4</f>
         <v>0</v>
       </c>
       <c r="I14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!I$4</f>
         <v>0</v>
       </c>
       <c r="J14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!J$4</f>
         <v>0</v>
       </c>
       <c r="K14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!K$4</f>
         <v>0</v>
       </c>
       <c r="L14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!L$4</f>
         <v>0</v>
       </c>
       <c r="M14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!M$4</f>
         <v>0</v>
       </c>
       <c r="N14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!N$4</f>
         <v>0</v>
       </c>
       <c r="O14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!O$4</f>
         <v>0</v>
       </c>
       <c r="P14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!P$4</f>
         <v>0</v>
       </c>
       <c r="Q14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!Q$4</f>
         <v>0</v>
       </c>
       <c r="R14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!R$4</f>
         <v>0</v>
       </c>
       <c r="S14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!S$4</f>
         <v>0</v>
       </c>
       <c r="T14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!T$4</f>
         <v>0</v>
       </c>
       <c r="U14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!U$4</f>
         <v>0</v>
       </c>
       <c r="V14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!V$4</f>
         <v>0</v>
       </c>
       <c r="W14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!W$4</f>
         <v>0</v>
       </c>
       <c r="X14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!X$4</f>
         <v>0</v>
       </c>
       <c r="Y14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!Y$4</f>
         <v>0</v>
       </c>
     </row>
@@ -23949,75 +24749,99 @@
         <v>14</v>
       </c>
       <c r="B15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!B$4</f>
         <v>0</v>
       </c>
       <c r="C15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!C$4</f>
         <v>0</v>
       </c>
       <c r="D15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!D$4</f>
         <v>0</v>
       </c>
       <c r="E15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!E$4</f>
         <v>0</v>
       </c>
       <c r="F15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!F$4</f>
         <v>0</v>
       </c>
       <c r="G15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!G$4</f>
         <v>0</v>
       </c>
       <c r="H15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!H$4</f>
         <v>0</v>
       </c>
       <c r="I15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!I$4</f>
         <v>0</v>
       </c>
       <c r="J15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!J$4</f>
         <v>0</v>
       </c>
       <c r="K15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!K$4</f>
         <v>0</v>
       </c>
       <c r="L15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!L$4</f>
         <v>0</v>
       </c>
       <c r="M15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!M$4</f>
         <v>0</v>
       </c>
       <c r="N15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!N$4</f>
         <v>0</v>
       </c>
       <c r="O15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!O$4</f>
         <v>0</v>
       </c>
       <c r="P15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!P$4</f>
         <v>0</v>
       </c>
       <c r="Q15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!Q$4</f>
         <v>0</v>
       </c>
       <c r="R15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!R$4</f>
         <v>0</v>
       </c>
       <c r="S15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!S$4</f>
         <v>0</v>
       </c>
       <c r="T15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!T$4</f>
         <v>0</v>
       </c>
       <c r="U15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!U$4</f>
         <v>0</v>
       </c>
       <c r="V15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!V$4</f>
         <v>0</v>
       </c>
       <c r="W15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!W$4</f>
         <v>0</v>
       </c>
       <c r="X15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!X$4</f>
         <v>0</v>
       </c>
       <c r="Y15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!Y$4</f>
         <v>0</v>
       </c>
     </row>
@@ -24026,75 +24850,99 @@
         <v>15</v>
       </c>
       <c r="B16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!B$4</f>
         <v>0</v>
       </c>
       <c r="C16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!C$4</f>
         <v>0</v>
       </c>
       <c r="D16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!D$4</f>
         <v>0</v>
       </c>
       <c r="E16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!E$4</f>
         <v>0</v>
       </c>
       <c r="F16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!F$4</f>
         <v>0</v>
       </c>
       <c r="G16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!G$4</f>
         <v>0</v>
       </c>
       <c r="H16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!H$4</f>
         <v>0</v>
       </c>
       <c r="I16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!I$4</f>
         <v>0</v>
       </c>
       <c r="J16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!J$4</f>
         <v>0</v>
       </c>
       <c r="K16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!K$4</f>
         <v>0</v>
       </c>
       <c r="L16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!L$4</f>
         <v>0</v>
       </c>
       <c r="M16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!M$4</f>
         <v>0</v>
       </c>
       <c r="N16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!N$4</f>
         <v>0</v>
       </c>
       <c r="O16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!O$4</f>
         <v>0</v>
       </c>
       <c r="P16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!P$4</f>
         <v>0</v>
       </c>
       <c r="Q16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!Q$4</f>
         <v>0</v>
       </c>
       <c r="R16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!R$4</f>
         <v>0</v>
       </c>
       <c r="S16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!S$4</f>
         <v>0</v>
       </c>
       <c r="T16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!T$4</f>
         <v>0</v>
       </c>
       <c r="U16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!U$4</f>
         <v>0</v>
       </c>
       <c r="V16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!V$4</f>
         <v>0</v>
       </c>
       <c r="W16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!W$4</f>
         <v>0</v>
       </c>
       <c r="X16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!X$4</f>
         <v>0</v>
       </c>
       <c r="Y16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!Y$4</f>
         <v>0</v>
       </c>
     </row>
@@ -24103,75 +24951,99 @@
         <v>16</v>
       </c>
       <c r="B17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!B$4</f>
         <v>0</v>
       </c>
       <c r="C17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!C$4</f>
         <v>0</v>
       </c>
       <c r="D17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!D$4</f>
         <v>0</v>
       </c>
       <c r="E17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!E$4</f>
         <v>0</v>
       </c>
       <c r="F17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!F$4</f>
         <v>0</v>
       </c>
       <c r="G17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!G$4</f>
         <v>0</v>
       </c>
       <c r="H17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!H$4</f>
         <v>0</v>
       </c>
       <c r="I17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!I$4</f>
         <v>0</v>
       </c>
       <c r="J17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!J$4</f>
         <v>0</v>
       </c>
       <c r="K17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!K$4</f>
         <v>0</v>
       </c>
       <c r="L17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!L$4</f>
         <v>0</v>
       </c>
       <c r="M17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!M$4</f>
         <v>0</v>
       </c>
       <c r="N17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!N$4</f>
         <v>0</v>
       </c>
       <c r="O17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!O$4</f>
         <v>0</v>
       </c>
       <c r="P17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!P$4</f>
         <v>0</v>
       </c>
       <c r="Q17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!Q$4</f>
         <v>0</v>
       </c>
       <c r="R17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!R$4</f>
         <v>0</v>
       </c>
       <c r="S17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!S$4</f>
         <v>0</v>
       </c>
       <c r="T17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!T$4</f>
         <v>0</v>
       </c>
       <c r="U17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!U$4</f>
         <v>0</v>
       </c>
       <c r="V17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!V$4</f>
         <v>0</v>
       </c>
       <c r="W17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!W$4</f>
         <v>0</v>
       </c>
       <c r="X17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!X$4</f>
         <v>0</v>
       </c>
       <c r="Y17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!Y$4</f>
         <v>0</v>
       </c>
     </row>
@@ -24180,75 +25052,99 @@
         <v>17</v>
       </c>
       <c r="B18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!B$4</f>
         <v>0</v>
       </c>
       <c r="C18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!C$4</f>
         <v>0</v>
       </c>
       <c r="D18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!D$4</f>
         <v>0</v>
       </c>
       <c r="E18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!E$4</f>
         <v>0</v>
       </c>
       <c r="F18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!F$4</f>
         <v>0</v>
       </c>
       <c r="G18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!G$4</f>
         <v>0</v>
       </c>
       <c r="H18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!H$4</f>
         <v>0</v>
       </c>
       <c r="I18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!I$4</f>
         <v>0</v>
       </c>
       <c r="J18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!J$4</f>
         <v>0</v>
       </c>
       <c r="K18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!K$4</f>
         <v>0</v>
       </c>
       <c r="L18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!L$4</f>
         <v>0</v>
       </c>
       <c r="M18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!M$4</f>
         <v>0</v>
       </c>
       <c r="N18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!N$4</f>
         <v>0</v>
       </c>
       <c r="O18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!O$4</f>
         <v>0</v>
       </c>
       <c r="P18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!P$4</f>
         <v>0</v>
       </c>
       <c r="Q18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!Q$4</f>
         <v>0</v>
       </c>
       <c r="R18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!R$4</f>
         <v>0</v>
       </c>
       <c r="S18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!S$4</f>
         <v>0</v>
       </c>
       <c r="T18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!T$4</f>
         <v>0</v>
       </c>
       <c r="U18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!U$4</f>
         <v>0</v>
       </c>
       <c r="V18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!V$4</f>
         <v>0</v>
       </c>
       <c r="W18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!W$4</f>
         <v>0</v>
       </c>
       <c r="X18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!X$4</f>
         <v>0</v>
       </c>
       <c r="Y18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!Y$4</f>
         <v>0</v>
       </c>
     </row>
@@ -24257,75 +25153,99 @@
         <v>18</v>
       </c>
       <c r="B19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!B$4</f>
         <v>0</v>
       </c>
       <c r="C19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!C$4</f>
         <v>0</v>
       </c>
       <c r="D19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!D$4</f>
         <v>0</v>
       </c>
       <c r="E19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!E$4</f>
         <v>0</v>
       </c>
       <c r="F19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!F$4</f>
         <v>0</v>
       </c>
       <c r="G19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!G$4</f>
         <v>0</v>
       </c>
       <c r="H19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!H$4</f>
         <v>0</v>
       </c>
       <c r="I19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!I$4</f>
         <v>0</v>
       </c>
       <c r="J19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!J$4</f>
         <v>0</v>
       </c>
       <c r="K19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!K$4</f>
         <v>0</v>
       </c>
       <c r="L19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!L$4</f>
         <v>0</v>
       </c>
       <c r="M19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!M$4</f>
         <v>0</v>
       </c>
       <c r="N19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!N$4</f>
         <v>0</v>
       </c>
       <c r="O19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!O$4</f>
         <v>0</v>
       </c>
       <c r="P19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!P$4</f>
         <v>0</v>
       </c>
       <c r="Q19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!Q$4</f>
         <v>0</v>
       </c>
       <c r="R19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!R$4</f>
         <v>0</v>
       </c>
       <c r="S19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!S$4</f>
         <v>0</v>
       </c>
       <c r="T19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!T$4</f>
         <v>0</v>
       </c>
       <c r="U19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!U$4</f>
         <v>0</v>
       </c>
       <c r="V19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!V$4</f>
         <v>0</v>
       </c>
       <c r="W19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!W$4</f>
         <v>0</v>
       </c>
       <c r="X19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!X$4</f>
         <v>0</v>
       </c>
       <c r="Y19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!Y$4</f>
         <v>0</v>
       </c>
     </row>
@@ -24334,152 +25254,99 @@
         <v>19</v>
       </c>
       <c r="B20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!B$4</f>
         <v>0</v>
       </c>
       <c r="C20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!C$4</f>
         <v>0</v>
       </c>
       <c r="D20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!D$4</f>
         <v>0</v>
       </c>
       <c r="E20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!E$4</f>
         <v>0</v>
       </c>
       <c r="F20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!F$4</f>
         <v>0</v>
       </c>
       <c r="G20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!G$4</f>
         <v>0</v>
       </c>
       <c r="H20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!H$4</f>
         <v>0</v>
       </c>
       <c r="I20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!I$4</f>
         <v>0</v>
       </c>
       <c r="J20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!J$4</f>
         <v>0</v>
       </c>
       <c r="K20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!K$4</f>
         <v>0</v>
       </c>
       <c r="L20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!L$4</f>
         <v>0</v>
       </c>
       <c r="M20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!M$4</f>
         <v>0</v>
       </c>
       <c r="N20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!N$4</f>
         <v>0</v>
       </c>
       <c r="O20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!O$4</f>
         <v>0</v>
       </c>
       <c r="P20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!P$4</f>
         <v>0</v>
       </c>
       <c r="Q20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!Q$4</f>
         <v>0</v>
       </c>
       <c r="R20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!R$4</f>
         <v>0</v>
       </c>
       <c r="S20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!S$4</f>
         <v>0</v>
       </c>
       <c r="T20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!T$4</f>
         <v>0</v>
       </c>
       <c r="U20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!U$4</f>
         <v>0</v>
       </c>
       <c r="V20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!V$4</f>
         <v>0</v>
       </c>
       <c r="W20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!W$4</f>
         <v>0</v>
       </c>
       <c r="X20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!X$4</f>
         <v>0</v>
       </c>
       <c r="Y20" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>20</v>
-      </c>
-      <c r="B21" s="4">
-        <v>0</v>
-      </c>
-      <c r="C21" s="4">
-        <v>0</v>
-      </c>
-      <c r="D21" s="4">
-        <v>0</v>
-      </c>
-      <c r="E21" s="4">
-        <v>0</v>
-      </c>
-      <c r="F21" s="4">
-        <v>0</v>
-      </c>
-      <c r="G21" s="4">
-        <v>0</v>
-      </c>
-      <c r="H21" s="4">
-        <v>0</v>
-      </c>
-      <c r="I21" s="4">
-        <v>0</v>
-      </c>
-      <c r="J21" s="4">
-        <v>0</v>
-      </c>
-      <c r="K21" s="4">
-        <v>0</v>
-      </c>
-      <c r="L21" s="4">
-        <v>0</v>
-      </c>
-      <c r="M21" s="4">
-        <v>0</v>
-      </c>
-      <c r="N21" s="4">
-        <v>0</v>
-      </c>
-      <c r="O21" s="4">
-        <v>0</v>
-      </c>
-      <c r="P21" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="4">
-        <v>0</v>
-      </c>
-      <c r="R21" s="4">
-        <v>0</v>
-      </c>
-      <c r="S21" s="4">
-        <v>0</v>
-      </c>
-      <c r="T21" s="4">
-        <v>0</v>
-      </c>
-      <c r="U21" s="4">
-        <v>0</v>
-      </c>
-      <c r="V21" s="4">
-        <v>0</v>
-      </c>
-      <c r="W21" s="4">
-        <v>0</v>
-      </c>
-      <c r="X21" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Winter'!Y$4</f>
         <v>0</v>
       </c>
     </row>
@@ -24490,10 +25357,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A725F142-1119-4794-A24A-37C0A8DD46A7}">
-  <dimension ref="A1:Y21"/>
+  <dimension ref="A1:Y20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A21"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26038,83 +26905,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>20</v>
-      </c>
-      <c r="B21" s="4">
-        <v>0</v>
-      </c>
-      <c r="C21" s="4">
-        <v>0</v>
-      </c>
-      <c r="D21" s="4">
-        <v>0</v>
-      </c>
-      <c r="E21" s="4">
-        <v>0</v>
-      </c>
-      <c r="F21" s="4">
-        <v>0</v>
-      </c>
-      <c r="G21" s="4">
-        <v>0</v>
-      </c>
-      <c r="H21" s="4">
-        <v>0</v>
-      </c>
-      <c r="I21" s="4">
-        <v>0</v>
-      </c>
-      <c r="J21" s="4">
-        <v>0</v>
-      </c>
-      <c r="K21" s="4">
-        <v>0</v>
-      </c>
-      <c r="L21" s="4">
-        <v>0</v>
-      </c>
-      <c r="M21" s="4">
-        <v>0</v>
-      </c>
-      <c r="N21" s="4">
-        <v>0</v>
-      </c>
-      <c r="O21" s="4">
-        <v>0</v>
-      </c>
-      <c r="P21" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="4">
-        <v>0</v>
-      </c>
-      <c r="R21" s="4">
-        <v>0</v>
-      </c>
-      <c r="S21" s="4">
-        <v>0</v>
-      </c>
-      <c r="T21" s="4">
-        <v>0</v>
-      </c>
-      <c r="U21" s="4">
-        <v>0</v>
-      </c>
-      <c r="V21" s="4">
-        <v>0</v>
-      </c>
-      <c r="W21" s="4">
-        <v>0</v>
-      </c>
-      <c r="X21" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="4">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -26122,10 +26912,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AEB3560-20DF-4FA5-AB1A-7B8FB25900E3}">
-  <dimension ref="A1:Y21"/>
+  <dimension ref="A1:Y20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A21"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27670,83 +28460,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>20</v>
-      </c>
-      <c r="B21" s="4">
-        <v>0</v>
-      </c>
-      <c r="C21" s="4">
-        <v>0</v>
-      </c>
-      <c r="D21" s="4">
-        <v>0</v>
-      </c>
-      <c r="E21" s="4">
-        <v>0</v>
-      </c>
-      <c r="F21" s="4">
-        <v>0</v>
-      </c>
-      <c r="G21" s="4">
-        <v>0</v>
-      </c>
-      <c r="H21" s="4">
-        <v>0</v>
-      </c>
-      <c r="I21" s="4">
-        <v>0</v>
-      </c>
-      <c r="J21" s="4">
-        <v>0</v>
-      </c>
-      <c r="K21" s="4">
-        <v>0</v>
-      </c>
-      <c r="L21" s="4">
-        <v>0</v>
-      </c>
-      <c r="M21" s="4">
-        <v>0</v>
-      </c>
-      <c r="N21" s="4">
-        <v>0</v>
-      </c>
-      <c r="O21" s="4">
-        <v>0</v>
-      </c>
-      <c r="P21" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="4">
-        <v>0</v>
-      </c>
-      <c r="R21" s="4">
-        <v>0</v>
-      </c>
-      <c r="S21" s="4">
-        <v>0</v>
-      </c>
-      <c r="T21" s="4">
-        <v>0</v>
-      </c>
-      <c r="U21" s="4">
-        <v>0</v>
-      </c>
-      <c r="V21" s="4">
-        <v>0</v>
-      </c>
-      <c r="W21" s="4">
-        <v>0</v>
-      </c>
-      <c r="X21" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="4">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -27754,10 +28467,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A27CBE5-FD02-46F2-8408-8A2CB5CB57BE}">
-  <dimension ref="A1:Y21"/>
+  <dimension ref="A1:Y20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A21"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29302,83 +30015,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>20</v>
-      </c>
-      <c r="B21" s="4">
-        <v>0</v>
-      </c>
-      <c r="C21" s="4">
-        <v>0</v>
-      </c>
-      <c r="D21" s="4">
-        <v>0</v>
-      </c>
-      <c r="E21" s="4">
-        <v>0</v>
-      </c>
-      <c r="F21" s="4">
-        <v>0</v>
-      </c>
-      <c r="G21" s="4">
-        <v>0</v>
-      </c>
-      <c r="H21" s="4">
-        <v>0</v>
-      </c>
-      <c r="I21" s="4">
-        <v>0</v>
-      </c>
-      <c r="J21" s="4">
-        <v>0</v>
-      </c>
-      <c r="K21" s="4">
-        <v>0</v>
-      </c>
-      <c r="L21" s="4">
-        <v>0</v>
-      </c>
-      <c r="M21" s="4">
-        <v>0</v>
-      </c>
-      <c r="N21" s="4">
-        <v>0</v>
-      </c>
-      <c r="O21" s="4">
-        <v>0</v>
-      </c>
-      <c r="P21" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="4">
-        <v>0</v>
-      </c>
-      <c r="R21" s="4">
-        <v>0</v>
-      </c>
-      <c r="S21" s="4">
-        <v>0</v>
-      </c>
-      <c r="T21" s="4">
-        <v>0</v>
-      </c>
-      <c r="U21" s="4">
-        <v>0</v>
-      </c>
-      <c r="V21" s="4">
-        <v>0</v>
-      </c>
-      <c r="W21" s="4">
-        <v>0</v>
-      </c>
-      <c r="X21" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="4">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -29386,10 +30022,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0298593C-F815-419C-9263-277A8888F6D8}">
-  <dimension ref="A1:Y21"/>
+  <dimension ref="A1:Y20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q53" sqref="Q53"/>
+      <selection activeCell="A21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30931,83 +31567,6 @@
         <v>0</v>
       </c>
       <c r="Y20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>20</v>
-      </c>
-      <c r="B21" s="3">
-        <v>0</v>
-      </c>
-      <c r="C21" s="3">
-        <v>0</v>
-      </c>
-      <c r="D21" s="3">
-        <v>0</v>
-      </c>
-      <c r="E21" s="3">
-        <v>0</v>
-      </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
-      <c r="N21" s="3">
-        <v>0</v>
-      </c>
-      <c r="O21" s="3">
-        <v>0</v>
-      </c>
-      <c r="P21" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>0</v>
-      </c>
-      <c r="R21" s="3">
-        <v>0</v>
-      </c>
-      <c r="S21" s="3">
-        <v>0</v>
-      </c>
-      <c r="T21" s="3">
-        <v>0</v>
-      </c>
-      <c r="U21" s="3">
-        <v>0</v>
-      </c>
-      <c r="V21" s="3">
-        <v>0</v>
-      </c>
-      <c r="W21" s="3">
-        <v>0</v>
-      </c>
-      <c r="X21" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="3">
         <v>0</v>
       </c>
     </row>
@@ -32709,10 +33268,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58AF7E2F-C521-4E43-83A3-255291D61BD8}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A11"/>
+      <selection activeCell="C2" sqref="C2:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32729,113 +33288,102 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="3">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>14</v>
+      </c>
+      <c r="B5">
         <v>15</v>
       </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>15</v>
+      </c>
+      <c r="B6">
         <v>16</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>16</v>
+      </c>
+      <c r="B7">
         <v>17</v>
       </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>17</v>
+      </c>
+      <c r="B8">
+        <v>26</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
         <v>18</v>
       </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="B9">
+        <v>22</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <v>19</v>
       </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>20</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>23</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="B10">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
+      <c r="C10" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -44675,11 +45223,11 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{428146B2-B249-4258-832C-9EC59A763D00}">
-  <dimension ref="A1:Y21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E7E584E-A645-41D2-A6F6-B3D67520AB67}">
+  <dimension ref="A1:Y20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B12" sqref="B12:Y20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45536,75 +46084,99 @@
         <v>11</v>
       </c>
       <c r="B12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!B$2</f>
         <v>0</v>
       </c>
       <c r="C12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!C$2</f>
         <v>0</v>
       </c>
       <c r="D12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!D$2</f>
         <v>0</v>
       </c>
       <c r="E12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!E$2</f>
         <v>0</v>
       </c>
       <c r="F12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!F$2</f>
         <v>0</v>
       </c>
       <c r="G12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!G$2</f>
         <v>0</v>
       </c>
       <c r="H12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!H$2</f>
         <v>0</v>
       </c>
       <c r="I12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!I$2</f>
         <v>0</v>
       </c>
       <c r="J12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!J$2</f>
         <v>0</v>
       </c>
       <c r="K12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!K$2</f>
         <v>0</v>
       </c>
       <c r="L12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!L$2</f>
         <v>0</v>
       </c>
       <c r="M12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!M$2</f>
         <v>0</v>
       </c>
       <c r="N12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!N$2</f>
         <v>0</v>
       </c>
       <c r="O12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!O$2</f>
         <v>0</v>
       </c>
       <c r="P12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!P$2</f>
         <v>0</v>
       </c>
       <c r="Q12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!Q$2</f>
         <v>0</v>
       </c>
       <c r="R12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!R$2</f>
         <v>0</v>
       </c>
       <c r="S12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!S$2</f>
         <v>0</v>
       </c>
       <c r="T12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!T$2</f>
         <v>0</v>
       </c>
       <c r="U12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!U$2</f>
         <v>0</v>
       </c>
       <c r="V12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!V$2</f>
         <v>0</v>
       </c>
       <c r="W12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!W$2</f>
         <v>0</v>
       </c>
       <c r="X12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!X$2</f>
         <v>0</v>
       </c>
       <c r="Y12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!Y$2</f>
         <v>0</v>
       </c>
     </row>
@@ -45613,75 +46185,99 @@
         <v>12</v>
       </c>
       <c r="B13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!B$2</f>
         <v>0</v>
       </c>
       <c r="C13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!C$2</f>
         <v>0</v>
       </c>
       <c r="D13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!D$2</f>
         <v>0</v>
       </c>
       <c r="E13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!E$2</f>
         <v>0</v>
       </c>
       <c r="F13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!F$2</f>
         <v>0</v>
       </c>
       <c r="G13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!G$2</f>
         <v>0</v>
       </c>
       <c r="H13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!H$2</f>
         <v>0</v>
       </c>
       <c r="I13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!I$2</f>
         <v>0</v>
       </c>
       <c r="J13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!J$2</f>
         <v>0</v>
       </c>
       <c r="K13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!K$2</f>
         <v>0</v>
       </c>
       <c r="L13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!L$2</f>
         <v>0</v>
       </c>
       <c r="M13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!M$2</f>
         <v>0</v>
       </c>
       <c r="N13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!N$2</f>
         <v>0</v>
       </c>
       <c r="O13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!O$2</f>
         <v>0</v>
       </c>
       <c r="P13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!P$2</f>
         <v>0</v>
       </c>
       <c r="Q13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!Q$2</f>
         <v>0</v>
       </c>
       <c r="R13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!R$2</f>
         <v>0</v>
       </c>
       <c r="S13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!S$2</f>
         <v>0</v>
       </c>
       <c r="T13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!T$2</f>
         <v>0</v>
       </c>
       <c r="U13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!U$2</f>
         <v>0</v>
       </c>
       <c r="V13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!V$2</f>
         <v>0</v>
       </c>
       <c r="W13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!W$2</f>
         <v>0</v>
       </c>
       <c r="X13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!X$2</f>
         <v>0</v>
       </c>
       <c r="Y13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!Y$2</f>
         <v>0</v>
       </c>
     </row>
@@ -45690,75 +46286,99 @@
         <v>13</v>
       </c>
       <c r="B14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!B$2</f>
         <v>0</v>
       </c>
       <c r="C14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!C$2</f>
         <v>0</v>
       </c>
       <c r="D14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!D$2</f>
         <v>0</v>
       </c>
       <c r="E14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!E$2</f>
         <v>0</v>
       </c>
       <c r="F14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!F$2</f>
         <v>0</v>
       </c>
       <c r="G14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!G$2</f>
         <v>0</v>
       </c>
       <c r="H14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!H$2</f>
         <v>0</v>
       </c>
       <c r="I14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!I$2</f>
         <v>0</v>
       </c>
       <c r="J14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!J$2</f>
         <v>0</v>
       </c>
       <c r="K14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!K$2</f>
         <v>0</v>
       </c>
       <c r="L14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!L$2</f>
         <v>0</v>
       </c>
       <c r="M14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!M$2</f>
         <v>0</v>
       </c>
       <c r="N14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!N$2</f>
         <v>0</v>
       </c>
       <c r="O14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!O$2</f>
         <v>0</v>
       </c>
       <c r="P14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!P$2</f>
         <v>0</v>
       </c>
       <c r="Q14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!Q$2</f>
         <v>0</v>
       </c>
       <c r="R14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!R$2</f>
         <v>0</v>
       </c>
       <c r="S14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!S$2</f>
         <v>0</v>
       </c>
       <c r="T14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!T$2</f>
         <v>0</v>
       </c>
       <c r="U14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!U$2</f>
         <v>0</v>
       </c>
       <c r="V14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!V$2</f>
         <v>0</v>
       </c>
       <c r="W14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!W$2</f>
         <v>0</v>
       </c>
       <c r="X14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!X$2</f>
         <v>0</v>
       </c>
       <c r="Y14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!Y$2</f>
         <v>0</v>
       </c>
     </row>
@@ -45767,75 +46387,99 @@
         <v>14</v>
       </c>
       <c r="B15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!B$2</f>
         <v>0</v>
       </c>
       <c r="C15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!C$2</f>
         <v>0</v>
       </c>
       <c r="D15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!D$2</f>
         <v>0</v>
       </c>
       <c r="E15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!E$2</f>
         <v>0</v>
       </c>
       <c r="F15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!F$2</f>
         <v>0</v>
       </c>
       <c r="G15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!G$2</f>
         <v>0</v>
       </c>
       <c r="H15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!H$2</f>
         <v>0</v>
       </c>
       <c r="I15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!I$2</f>
         <v>0</v>
       </c>
       <c r="J15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!J$2</f>
         <v>0</v>
       </c>
       <c r="K15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!K$2</f>
         <v>0</v>
       </c>
       <c r="L15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!L$2</f>
         <v>0</v>
       </c>
       <c r="M15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!M$2</f>
         <v>0</v>
       </c>
       <c r="N15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!N$2</f>
         <v>0</v>
       </c>
       <c r="O15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!O$2</f>
         <v>0</v>
       </c>
       <c r="P15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!P$2</f>
         <v>0</v>
       </c>
       <c r="Q15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!Q$2</f>
         <v>0</v>
       </c>
       <c r="R15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!R$2</f>
         <v>0</v>
       </c>
       <c r="S15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!S$2</f>
         <v>0</v>
       </c>
       <c r="T15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!T$2</f>
         <v>0</v>
       </c>
       <c r="U15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!U$2</f>
         <v>0</v>
       </c>
       <c r="V15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!V$2</f>
         <v>0</v>
       </c>
       <c r="W15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!W$2</f>
         <v>0</v>
       </c>
       <c r="X15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!X$2</f>
         <v>0</v>
       </c>
       <c r="Y15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!Y$2</f>
         <v>0</v>
       </c>
     </row>
@@ -45844,75 +46488,99 @@
         <v>15</v>
       </c>
       <c r="B16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!B$2</f>
         <v>0</v>
       </c>
       <c r="C16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!C$2</f>
         <v>0</v>
       </c>
       <c r="D16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!D$2</f>
         <v>0</v>
       </c>
       <c r="E16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!E$2</f>
         <v>0</v>
       </c>
       <c r="F16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!F$2</f>
         <v>0</v>
       </c>
       <c r="G16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!G$2</f>
         <v>0</v>
       </c>
       <c r="H16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!H$2</f>
         <v>0</v>
       </c>
       <c r="I16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!I$2</f>
         <v>0</v>
       </c>
       <c r="J16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!J$2</f>
         <v>0</v>
       </c>
       <c r="K16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!K$2</f>
         <v>0</v>
       </c>
       <c r="L16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!L$2</f>
         <v>0</v>
       </c>
       <c r="M16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!M$2</f>
         <v>0</v>
       </c>
       <c r="N16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!N$2</f>
         <v>0</v>
       </c>
       <c r="O16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!O$2</f>
         <v>0</v>
       </c>
       <c r="P16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!P$2</f>
         <v>0</v>
       </c>
       <c r="Q16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!Q$2</f>
         <v>0</v>
       </c>
       <c r="R16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!R$2</f>
         <v>0</v>
       </c>
       <c r="S16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!S$2</f>
         <v>0</v>
       </c>
       <c r="T16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!T$2</f>
         <v>0</v>
       </c>
       <c r="U16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!U$2</f>
         <v>0</v>
       </c>
       <c r="V16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!V$2</f>
         <v>0</v>
       </c>
       <c r="W16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!W$2</f>
         <v>0</v>
       </c>
       <c r="X16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!X$2</f>
         <v>0</v>
       </c>
       <c r="Y16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!Y$2</f>
         <v>0</v>
       </c>
     </row>
@@ -45921,75 +46589,99 @@
         <v>16</v>
       </c>
       <c r="B17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!B$2</f>
         <v>0</v>
       </c>
       <c r="C17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!C$2</f>
         <v>0</v>
       </c>
       <c r="D17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!D$2</f>
         <v>0</v>
       </c>
       <c r="E17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!E$2</f>
         <v>0</v>
       </c>
       <c r="F17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!F$2</f>
         <v>0</v>
       </c>
       <c r="G17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!G$2</f>
         <v>0</v>
       </c>
       <c r="H17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!H$2</f>
         <v>0</v>
       </c>
       <c r="I17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!I$2</f>
         <v>0</v>
       </c>
       <c r="J17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!J$2</f>
         <v>0</v>
       </c>
       <c r="K17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!K$2</f>
         <v>0</v>
       </c>
       <c r="L17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!L$2</f>
         <v>0</v>
       </c>
       <c r="M17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!M$2</f>
         <v>0</v>
       </c>
       <c r="N17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!N$2</f>
         <v>0</v>
       </c>
       <c r="O17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!O$2</f>
         <v>0</v>
       </c>
       <c r="P17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!P$2</f>
         <v>0</v>
       </c>
       <c r="Q17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!Q$2</f>
         <v>0</v>
       </c>
       <c r="R17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!R$2</f>
         <v>0</v>
       </c>
       <c r="S17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!S$2</f>
         <v>0</v>
       </c>
       <c r="T17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!T$2</f>
         <v>0</v>
       </c>
       <c r="U17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!U$2</f>
         <v>0</v>
       </c>
       <c r="V17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!V$2</f>
         <v>0</v>
       </c>
       <c r="W17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!W$2</f>
         <v>0</v>
       </c>
       <c r="X17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!X$2</f>
         <v>0</v>
       </c>
       <c r="Y17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!Y$2</f>
         <v>0</v>
       </c>
     </row>
@@ -45998,75 +46690,99 @@
         <v>17</v>
       </c>
       <c r="B18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!B$2</f>
         <v>0</v>
       </c>
       <c r="C18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!C$2</f>
         <v>0</v>
       </c>
       <c r="D18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!D$2</f>
         <v>0</v>
       </c>
       <c r="E18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!E$2</f>
         <v>0</v>
       </c>
       <c r="F18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!F$2</f>
         <v>0</v>
       </c>
       <c r="G18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!G$2</f>
         <v>0</v>
       </c>
       <c r="H18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!H$2</f>
         <v>0</v>
       </c>
       <c r="I18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!I$2</f>
         <v>0</v>
       </c>
       <c r="J18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!J$2</f>
         <v>0</v>
       </c>
       <c r="K18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!K$2</f>
         <v>0</v>
       </c>
       <c r="L18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!L$2</f>
         <v>0</v>
       </c>
       <c r="M18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!M$2</f>
         <v>0</v>
       </c>
       <c r="N18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!N$2</f>
         <v>0</v>
       </c>
       <c r="O18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!O$2</f>
         <v>0</v>
       </c>
       <c r="P18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!P$2</f>
         <v>0</v>
       </c>
       <c r="Q18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!Q$2</f>
         <v>0</v>
       </c>
       <c r="R18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!R$2</f>
         <v>0</v>
       </c>
       <c r="S18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!S$2</f>
         <v>0</v>
       </c>
       <c r="T18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!T$2</f>
         <v>0</v>
       </c>
       <c r="U18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!U$2</f>
         <v>0</v>
       </c>
       <c r="V18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!V$2</f>
         <v>0</v>
       </c>
       <c r="W18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!W$2</f>
         <v>0</v>
       </c>
       <c r="X18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!X$2</f>
         <v>0</v>
       </c>
       <c r="Y18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!Y$2</f>
         <v>0</v>
       </c>
     </row>
@@ -46075,75 +46791,99 @@
         <v>18</v>
       </c>
       <c r="B19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!B$2</f>
         <v>0</v>
       </c>
       <c r="C19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!C$2</f>
         <v>0</v>
       </c>
       <c r="D19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!D$2</f>
         <v>0</v>
       </c>
       <c r="E19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!E$2</f>
         <v>0</v>
       </c>
       <c r="F19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!F$2</f>
         <v>0</v>
       </c>
       <c r="G19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!G$2</f>
         <v>0</v>
       </c>
       <c r="H19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!H$2</f>
         <v>0</v>
       </c>
       <c r="I19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!I$2</f>
         <v>0</v>
       </c>
       <c r="J19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!J$2</f>
         <v>0</v>
       </c>
       <c r="K19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!K$2</f>
         <v>0</v>
       </c>
       <c r="L19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!L$2</f>
         <v>0</v>
       </c>
       <c r="M19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!M$2</f>
         <v>0</v>
       </c>
       <c r="N19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!N$2</f>
         <v>0</v>
       </c>
       <c r="O19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!O$2</f>
         <v>0</v>
       </c>
       <c r="P19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!P$2</f>
         <v>0</v>
       </c>
       <c r="Q19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!Q$2</f>
         <v>0</v>
       </c>
       <c r="R19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!R$2</f>
         <v>0</v>
       </c>
       <c r="S19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!S$2</f>
         <v>0</v>
       </c>
       <c r="T19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!T$2</f>
         <v>0</v>
       </c>
       <c r="U19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!U$2</f>
         <v>0</v>
       </c>
       <c r="V19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!V$2</f>
         <v>0</v>
       </c>
       <c r="W19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!W$2</f>
         <v>0</v>
       </c>
       <c r="X19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!X$2</f>
         <v>0</v>
       </c>
       <c r="Y19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!Y$2</f>
         <v>0</v>
       </c>
     </row>
@@ -46152,152 +46892,99 @@
         <v>19</v>
       </c>
       <c r="B20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!B$2</f>
         <v>0</v>
       </c>
       <c r="C20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!C$2</f>
         <v>0</v>
       </c>
       <c r="D20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!D$2</f>
         <v>0</v>
       </c>
       <c r="E20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!E$2</f>
         <v>0</v>
       </c>
       <c r="F20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!F$2</f>
         <v>0</v>
       </c>
       <c r="G20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!G$2</f>
         <v>0</v>
       </c>
       <c r="H20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!H$2</f>
         <v>0</v>
       </c>
       <c r="I20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!I$2</f>
         <v>0</v>
       </c>
       <c r="J20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!J$2</f>
         <v>0</v>
       </c>
       <c r="K20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!K$2</f>
         <v>0</v>
       </c>
       <c r="L20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!L$2</f>
         <v>0</v>
       </c>
       <c r="M20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!M$2</f>
         <v>0</v>
       </c>
       <c r="N20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!N$2</f>
         <v>0</v>
       </c>
       <c r="O20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!O$2</f>
         <v>0</v>
       </c>
       <c r="P20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!P$2</f>
         <v>0</v>
       </c>
       <c r="Q20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!Q$2</f>
         <v>0</v>
       </c>
       <c r="R20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!R$2</f>
         <v>0</v>
       </c>
       <c r="S20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!S$2</f>
         <v>0</v>
       </c>
       <c r="T20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!T$2</f>
         <v>0</v>
       </c>
       <c r="U20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!U$2</f>
         <v>0</v>
       </c>
       <c r="V20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!V$2</f>
         <v>0</v>
       </c>
       <c r="W20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!W$2</f>
         <v>0</v>
       </c>
       <c r="X20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!X$2</f>
         <v>0</v>
       </c>
       <c r="Y20" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>20</v>
-      </c>
-      <c r="B21" s="4">
-        <v>0</v>
-      </c>
-      <c r="C21" s="4">
-        <v>0</v>
-      </c>
-      <c r="D21" s="4">
-        <v>0</v>
-      </c>
-      <c r="E21" s="4">
-        <v>0</v>
-      </c>
-      <c r="F21" s="4">
-        <v>0</v>
-      </c>
-      <c r="G21" s="4">
-        <v>0</v>
-      </c>
-      <c r="H21" s="4">
-        <v>0</v>
-      </c>
-      <c r="I21" s="4">
-        <v>0</v>
-      </c>
-      <c r="J21" s="4">
-        <v>0</v>
-      </c>
-      <c r="K21" s="4">
-        <v>0</v>
-      </c>
-      <c r="L21" s="4">
-        <v>0</v>
-      </c>
-      <c r="M21" s="4">
-        <v>0</v>
-      </c>
-      <c r="N21" s="4">
-        <v>0</v>
-      </c>
-      <c r="O21" s="4">
-        <v>0</v>
-      </c>
-      <c r="P21" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="4">
-        <v>0</v>
-      </c>
-      <c r="R21" s="4">
-        <v>0</v>
-      </c>
-      <c r="S21" s="4">
-        <v>0</v>
-      </c>
-      <c r="T21" s="4">
-        <v>0</v>
-      </c>
-      <c r="U21" s="4">
-        <v>0</v>
-      </c>
-      <c r="V21" s="4">
-        <v>0</v>
-      </c>
-      <c r="W21" s="4">
-        <v>0</v>
-      </c>
-      <c r="X21" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!Y$2</f>
         <v>0</v>
       </c>
     </row>
@@ -46307,11 +46994,11 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5089C86-9EE2-4C0A-A452-7FB8988C85EC}">
-  <dimension ref="A1:Y21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7862294-E222-4CFA-96F0-C0D4A84FABD9}">
+  <dimension ref="A1:Y20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B12" sqref="B12:Y20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47168,75 +47855,99 @@
         <v>11</v>
       </c>
       <c r="B12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!B$3</f>
         <v>0</v>
       </c>
       <c r="C12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!C$3</f>
         <v>0</v>
       </c>
       <c r="D12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!D$3</f>
         <v>0</v>
       </c>
       <c r="E12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!E$3</f>
         <v>0</v>
       </c>
       <c r="F12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!F$3</f>
         <v>0</v>
       </c>
       <c r="G12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!G$3</f>
         <v>0</v>
       </c>
       <c r="H12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!H$3</f>
         <v>0</v>
       </c>
       <c r="I12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!I$3</f>
         <v>0</v>
       </c>
       <c r="J12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!J$3</f>
         <v>0</v>
       </c>
       <c r="K12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!K$3</f>
         <v>0</v>
       </c>
       <c r="L12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!L$3</f>
         <v>0</v>
       </c>
       <c r="M12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!M$3</f>
         <v>0</v>
       </c>
       <c r="N12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!N$3</f>
         <v>0</v>
       </c>
       <c r="O12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!O$3</f>
         <v>0</v>
       </c>
       <c r="P12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!P$3</f>
         <v>0</v>
       </c>
       <c r="Q12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!Q$3</f>
         <v>0</v>
       </c>
       <c r="R12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!R$3</f>
         <v>0</v>
       </c>
       <c r="S12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!S$3</f>
         <v>0</v>
       </c>
       <c r="T12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!T$3</f>
         <v>0</v>
       </c>
       <c r="U12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!U$3</f>
         <v>0</v>
       </c>
       <c r="V12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!V$3</f>
         <v>0</v>
       </c>
       <c r="W12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!W$3</f>
         <v>0</v>
       </c>
       <c r="X12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!X$3</f>
         <v>0</v>
       </c>
       <c r="Y12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!Y$3</f>
         <v>0</v>
       </c>
     </row>
@@ -47245,75 +47956,99 @@
         <v>12</v>
       </c>
       <c r="B13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!B$3</f>
         <v>0</v>
       </c>
       <c r="C13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!C$3</f>
         <v>0</v>
       </c>
       <c r="D13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!D$3</f>
         <v>0</v>
       </c>
       <c r="E13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!E$3</f>
         <v>0</v>
       </c>
       <c r="F13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!F$3</f>
         <v>0</v>
       </c>
       <c r="G13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!G$3</f>
         <v>0</v>
       </c>
       <c r="H13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!H$3</f>
         <v>0</v>
       </c>
       <c r="I13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!I$3</f>
         <v>0</v>
       </c>
       <c r="J13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!J$3</f>
         <v>0</v>
       </c>
       <c r="K13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!K$3</f>
         <v>0</v>
       </c>
       <c r="L13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!L$3</f>
         <v>0</v>
       </c>
       <c r="M13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!M$3</f>
         <v>0</v>
       </c>
       <c r="N13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!N$3</f>
         <v>0</v>
       </c>
       <c r="O13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!O$3</f>
         <v>0</v>
       </c>
       <c r="P13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!P$3</f>
         <v>0</v>
       </c>
       <c r="Q13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!Q$3</f>
         <v>0</v>
       </c>
       <c r="R13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!R$3</f>
         <v>0</v>
       </c>
       <c r="S13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!S$3</f>
         <v>0</v>
       </c>
       <c r="T13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!T$3</f>
         <v>0</v>
       </c>
       <c r="U13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!U$3</f>
         <v>0</v>
       </c>
       <c r="V13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!V$3</f>
         <v>0</v>
       </c>
       <c r="W13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!W$3</f>
         <v>0</v>
       </c>
       <c r="X13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!X$3</f>
         <v>0</v>
       </c>
       <c r="Y13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!Y$3</f>
         <v>0</v>
       </c>
     </row>
@@ -47322,75 +48057,99 @@
         <v>13</v>
       </c>
       <c r="B14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!B$3</f>
         <v>0</v>
       </c>
       <c r="C14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!C$3</f>
         <v>0</v>
       </c>
       <c r="D14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!D$3</f>
         <v>0</v>
       </c>
       <c r="E14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!E$3</f>
         <v>0</v>
       </c>
       <c r="F14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!F$3</f>
         <v>0</v>
       </c>
       <c r="G14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!G$3</f>
         <v>0</v>
       </c>
       <c r="H14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!H$3</f>
         <v>0</v>
       </c>
       <c r="I14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!I$3</f>
         <v>0</v>
       </c>
       <c r="J14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!J$3</f>
         <v>0</v>
       </c>
       <c r="K14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!K$3</f>
         <v>0</v>
       </c>
       <c r="L14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!L$3</f>
         <v>0</v>
       </c>
       <c r="M14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!M$3</f>
         <v>0</v>
       </c>
       <c r="N14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!N$3</f>
         <v>0</v>
       </c>
       <c r="O14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!O$3</f>
         <v>0</v>
       </c>
       <c r="P14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!P$3</f>
         <v>0</v>
       </c>
       <c r="Q14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!Q$3</f>
         <v>0</v>
       </c>
       <c r="R14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!R$3</f>
         <v>0</v>
       </c>
       <c r="S14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!S$3</f>
         <v>0</v>
       </c>
       <c r="T14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!T$3</f>
         <v>0</v>
       </c>
       <c r="U14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!U$3</f>
         <v>0</v>
       </c>
       <c r="V14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!V$3</f>
         <v>0</v>
       </c>
       <c r="W14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!W$3</f>
         <v>0</v>
       </c>
       <c r="X14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!X$3</f>
         <v>0</v>
       </c>
       <c r="Y14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!Y$3</f>
         <v>0</v>
       </c>
     </row>
@@ -47399,75 +48158,99 @@
         <v>14</v>
       </c>
       <c r="B15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!B$3</f>
         <v>0</v>
       </c>
       <c r="C15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!C$3</f>
         <v>0</v>
       </c>
       <c r="D15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!D$3</f>
         <v>0</v>
       </c>
       <c r="E15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!E$3</f>
         <v>0</v>
       </c>
       <c r="F15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!F$3</f>
         <v>0</v>
       </c>
       <c r="G15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!G$3</f>
         <v>0</v>
       </c>
       <c r="H15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!H$3</f>
         <v>0</v>
       </c>
       <c r="I15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!I$3</f>
         <v>0</v>
       </c>
       <c r="J15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!J$3</f>
         <v>0</v>
       </c>
       <c r="K15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!K$3</f>
         <v>0</v>
       </c>
       <c r="L15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!L$3</f>
         <v>0</v>
       </c>
       <c r="M15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!M$3</f>
         <v>0</v>
       </c>
       <c r="N15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!N$3</f>
         <v>0</v>
       </c>
       <c r="O15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!O$3</f>
         <v>0</v>
       </c>
       <c r="P15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!P$3</f>
         <v>0</v>
       </c>
       <c r="Q15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!Q$3</f>
         <v>0</v>
       </c>
       <c r="R15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!R$3</f>
         <v>0</v>
       </c>
       <c r="S15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!S$3</f>
         <v>0</v>
       </c>
       <c r="T15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!T$3</f>
         <v>0</v>
       </c>
       <c r="U15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!U$3</f>
         <v>0</v>
       </c>
       <c r="V15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!V$3</f>
         <v>0</v>
       </c>
       <c r="W15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!W$3</f>
         <v>0</v>
       </c>
       <c r="X15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!X$3</f>
         <v>0</v>
       </c>
       <c r="Y15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!Y$3</f>
         <v>0</v>
       </c>
     </row>
@@ -47476,75 +48259,99 @@
         <v>15</v>
       </c>
       <c r="B16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!B$3</f>
         <v>0</v>
       </c>
       <c r="C16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!C$3</f>
         <v>0</v>
       </c>
       <c r="D16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!D$3</f>
         <v>0</v>
       </c>
       <c r="E16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!E$3</f>
         <v>0</v>
       </c>
       <c r="F16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!F$3</f>
         <v>0</v>
       </c>
       <c r="G16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!G$3</f>
         <v>0</v>
       </c>
       <c r="H16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!H$3</f>
         <v>0</v>
       </c>
       <c r="I16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!I$3</f>
         <v>0</v>
       </c>
       <c r="J16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!J$3</f>
         <v>0</v>
       </c>
       <c r="K16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!K$3</f>
         <v>0</v>
       </c>
       <c r="L16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!L$3</f>
         <v>0</v>
       </c>
       <c r="M16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!M$3</f>
         <v>0</v>
       </c>
       <c r="N16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!N$3</f>
         <v>0</v>
       </c>
       <c r="O16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!O$3</f>
         <v>0</v>
       </c>
       <c r="P16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!P$3</f>
         <v>0</v>
       </c>
       <c r="Q16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!Q$3</f>
         <v>0</v>
       </c>
       <c r="R16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!R$3</f>
         <v>0</v>
       </c>
       <c r="S16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!S$3</f>
         <v>0</v>
       </c>
       <c r="T16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!T$3</f>
         <v>0</v>
       </c>
       <c r="U16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!U$3</f>
         <v>0</v>
       </c>
       <c r="V16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!V$3</f>
         <v>0</v>
       </c>
       <c r="W16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!W$3</f>
         <v>0</v>
       </c>
       <c r="X16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!X$3</f>
         <v>0</v>
       </c>
       <c r="Y16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!Y$3</f>
         <v>0</v>
       </c>
     </row>
@@ -47553,75 +48360,99 @@
         <v>16</v>
       </c>
       <c r="B17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!B$3</f>
         <v>0</v>
       </c>
       <c r="C17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!C$3</f>
         <v>0</v>
       </c>
       <c r="D17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!D$3</f>
         <v>0</v>
       </c>
       <c r="E17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!E$3</f>
         <v>0</v>
       </c>
       <c r="F17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!F$3</f>
         <v>0</v>
       </c>
       <c r="G17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!G$3</f>
         <v>0</v>
       </c>
       <c r="H17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!H$3</f>
         <v>0</v>
       </c>
       <c r="I17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!I$3</f>
         <v>0</v>
       </c>
       <c r="J17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!J$3</f>
         <v>0</v>
       </c>
       <c r="K17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!K$3</f>
         <v>0</v>
       </c>
       <c r="L17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!L$3</f>
         <v>0</v>
       </c>
       <c r="M17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!M$3</f>
         <v>0</v>
       </c>
       <c r="N17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!N$3</f>
         <v>0</v>
       </c>
       <c r="O17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!O$3</f>
         <v>0</v>
       </c>
       <c r="P17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!P$3</f>
         <v>0</v>
       </c>
       <c r="Q17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!Q$3</f>
         <v>0</v>
       </c>
       <c r="R17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!R$3</f>
         <v>0</v>
       </c>
       <c r="S17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!S$3</f>
         <v>0</v>
       </c>
       <c r="T17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!T$3</f>
         <v>0</v>
       </c>
       <c r="U17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!U$3</f>
         <v>0</v>
       </c>
       <c r="V17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!V$3</f>
         <v>0</v>
       </c>
       <c r="W17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!W$3</f>
         <v>0</v>
       </c>
       <c r="X17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!X$3</f>
         <v>0</v>
       </c>
       <c r="Y17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!Y$3</f>
         <v>0</v>
       </c>
     </row>
@@ -47630,75 +48461,99 @@
         <v>17</v>
       </c>
       <c r="B18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!B$3</f>
         <v>0</v>
       </c>
       <c r="C18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!C$3</f>
         <v>0</v>
       </c>
       <c r="D18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!D$3</f>
         <v>0</v>
       </c>
       <c r="E18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!E$3</f>
         <v>0</v>
       </c>
       <c r="F18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!F$3</f>
         <v>0</v>
       </c>
       <c r="G18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!G$3</f>
         <v>0</v>
       </c>
       <c r="H18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!H$3</f>
         <v>0</v>
       </c>
       <c r="I18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!I$3</f>
         <v>0</v>
       </c>
       <c r="J18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!J$3</f>
         <v>0</v>
       </c>
       <c r="K18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!K$3</f>
         <v>0</v>
       </c>
       <c r="L18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!L$3</f>
         <v>0</v>
       </c>
       <c r="M18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!M$3</f>
         <v>0</v>
       </c>
       <c r="N18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!N$3</f>
         <v>0</v>
       </c>
       <c r="O18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!O$3</f>
         <v>0</v>
       </c>
       <c r="P18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!P$3</f>
         <v>0</v>
       </c>
       <c r="Q18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!Q$3</f>
         <v>0</v>
       </c>
       <c r="R18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!R$3</f>
         <v>0</v>
       </c>
       <c r="S18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!S$3</f>
         <v>0</v>
       </c>
       <c r="T18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!T$3</f>
         <v>0</v>
       </c>
       <c r="U18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!U$3</f>
         <v>0</v>
       </c>
       <c r="V18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!V$3</f>
         <v>0</v>
       </c>
       <c r="W18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!W$3</f>
         <v>0</v>
       </c>
       <c r="X18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!X$3</f>
         <v>0</v>
       </c>
       <c r="Y18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!Y$3</f>
         <v>0</v>
       </c>
     </row>
@@ -47707,75 +48562,99 @@
         <v>18</v>
       </c>
       <c r="B19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!B$3</f>
         <v>0</v>
       </c>
       <c r="C19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!C$3</f>
         <v>0</v>
       </c>
       <c r="D19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!D$3</f>
         <v>0</v>
       </c>
       <c r="E19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!E$3</f>
         <v>0</v>
       </c>
       <c r="F19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!F$3</f>
         <v>0</v>
       </c>
       <c r="G19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!G$3</f>
         <v>0</v>
       </c>
       <c r="H19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!H$3</f>
         <v>0</v>
       </c>
       <c r="I19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!I$3</f>
         <v>0</v>
       </c>
       <c r="J19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!J$3</f>
         <v>0</v>
       </c>
       <c r="K19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!K$3</f>
         <v>0</v>
       </c>
       <c r="L19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!L$3</f>
         <v>0</v>
       </c>
       <c r="M19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!M$3</f>
         <v>0</v>
       </c>
       <c r="N19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!N$3</f>
         <v>0</v>
       </c>
       <c r="O19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!O$3</f>
         <v>0</v>
       </c>
       <c r="P19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!P$3</f>
         <v>0</v>
       </c>
       <c r="Q19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!Q$3</f>
         <v>0</v>
       </c>
       <c r="R19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!R$3</f>
         <v>0</v>
       </c>
       <c r="S19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!S$3</f>
         <v>0</v>
       </c>
       <c r="T19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!T$3</f>
         <v>0</v>
       </c>
       <c r="U19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!U$3</f>
         <v>0</v>
       </c>
       <c r="V19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!V$3</f>
         <v>0</v>
       </c>
       <c r="W19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!W$3</f>
         <v>0</v>
       </c>
       <c r="X19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!X$3</f>
         <v>0</v>
       </c>
       <c r="Y19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!Y$3</f>
         <v>0</v>
       </c>
     </row>
@@ -47784,152 +48663,99 @@
         <v>19</v>
       </c>
       <c r="B20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!B$3</f>
         <v>0</v>
       </c>
       <c r="C20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!C$3</f>
         <v>0</v>
       </c>
       <c r="D20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!D$3</f>
         <v>0</v>
       </c>
       <c r="E20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!E$3</f>
         <v>0</v>
       </c>
       <c r="F20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!F$3</f>
         <v>0</v>
       </c>
       <c r="G20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!G$3</f>
         <v>0</v>
       </c>
       <c r="H20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!H$3</f>
         <v>0</v>
       </c>
       <c r="I20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!I$3</f>
         <v>0</v>
       </c>
       <c r="J20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!J$3</f>
         <v>0</v>
       </c>
       <c r="K20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!K$3</f>
         <v>0</v>
       </c>
       <c r="L20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!L$3</f>
         <v>0</v>
       </c>
       <c r="M20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!M$3</f>
         <v>0</v>
       </c>
       <c r="N20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!N$3</f>
         <v>0</v>
       </c>
       <c r="O20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!O$3</f>
         <v>0</v>
       </c>
       <c r="P20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!P$3</f>
         <v>0</v>
       </c>
       <c r="Q20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!Q$3</f>
         <v>0</v>
       </c>
       <c r="R20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!R$3</f>
         <v>0</v>
       </c>
       <c r="S20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!S$3</f>
         <v>0</v>
       </c>
       <c r="T20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!T$3</f>
         <v>0</v>
       </c>
       <c r="U20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!U$3</f>
         <v>0</v>
       </c>
       <c r="V20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!V$3</f>
         <v>0</v>
       </c>
       <c r="W20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!W$3</f>
         <v>0</v>
       </c>
       <c r="X20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!X$3</f>
         <v>0</v>
       </c>
       <c r="Y20" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>20</v>
-      </c>
-      <c r="B21" s="4">
-        <v>0</v>
-      </c>
-      <c r="C21" s="4">
-        <v>0</v>
-      </c>
-      <c r="D21" s="4">
-        <v>0</v>
-      </c>
-      <c r="E21" s="4">
-        <v>0</v>
-      </c>
-      <c r="F21" s="4">
-        <v>0</v>
-      </c>
-      <c r="G21" s="4">
-        <v>0</v>
-      </c>
-      <c r="H21" s="4">
-        <v>0</v>
-      </c>
-      <c r="I21" s="4">
-        <v>0</v>
-      </c>
-      <c r="J21" s="4">
-        <v>0</v>
-      </c>
-      <c r="K21" s="4">
-        <v>0</v>
-      </c>
-      <c r="L21" s="4">
-        <v>0</v>
-      </c>
-      <c r="M21" s="4">
-        <v>0</v>
-      </c>
-      <c r="N21" s="4">
-        <v>0</v>
-      </c>
-      <c r="O21" s="4">
-        <v>0</v>
-      </c>
-      <c r="P21" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="4">
-        <v>0</v>
-      </c>
-      <c r="R21" s="4">
-        <v>0</v>
-      </c>
-      <c r="S21" s="4">
-        <v>0</v>
-      </c>
-      <c r="T21" s="4">
-        <v>0</v>
-      </c>
-      <c r="U21" s="4">
-        <v>0</v>
-      </c>
-      <c r="V21" s="4">
-        <v>0</v>
-      </c>
-      <c r="W21" s="4">
-        <v>0</v>
-      </c>
-      <c r="X21" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!Y$3</f>
         <v>0</v>
       </c>
     </row>
@@ -47939,11 +48765,11 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C938B607-1EF2-4A60-9C0D-A1C1DD26EE2F}">
-  <dimension ref="A1:Y21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76466935-1340-4FAC-829D-FE78B3DCE47B}">
+  <dimension ref="A1:Y20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B12" sqref="B12:Y20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48800,75 +49626,99 @@
         <v>11</v>
       </c>
       <c r="B12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!B$4</f>
         <v>0</v>
       </c>
       <c r="C12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!C$4</f>
         <v>0</v>
       </c>
       <c r="D12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!D$4</f>
         <v>0</v>
       </c>
       <c r="E12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!E$4</f>
         <v>0</v>
       </c>
       <c r="F12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!F$4</f>
         <v>0</v>
       </c>
       <c r="G12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!G$4</f>
         <v>0</v>
       </c>
       <c r="H12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!H$4</f>
         <v>0</v>
       </c>
       <c r="I12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!I$4</f>
         <v>0</v>
       </c>
       <c r="J12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!J$4</f>
         <v>0</v>
       </c>
       <c r="K12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!K$4</f>
         <v>0</v>
       </c>
       <c r="L12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!L$4</f>
         <v>0</v>
       </c>
       <c r="M12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!M$4</f>
         <v>0</v>
       </c>
       <c r="N12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!N$4</f>
         <v>0</v>
       </c>
       <c r="O12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!O$4</f>
         <v>0</v>
       </c>
       <c r="P12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!P$4</f>
         <v>0</v>
       </c>
       <c r="Q12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!Q$4</f>
         <v>0</v>
       </c>
       <c r="R12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!R$4</f>
         <v>0</v>
       </c>
       <c r="S12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!S$4</f>
         <v>0</v>
       </c>
       <c r="T12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!T$4</f>
         <v>0</v>
       </c>
       <c r="U12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!U$4</f>
         <v>0</v>
       </c>
       <c r="V12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!V$4</f>
         <v>0</v>
       </c>
       <c r="W12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!W$4</f>
         <v>0</v>
       </c>
       <c r="X12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!X$4</f>
         <v>0</v>
       </c>
       <c r="Y12" s="4">
+        <f>VLOOKUP($A12,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!Y$4</f>
         <v>0</v>
       </c>
     </row>
@@ -48877,75 +49727,99 @@
         <v>12</v>
       </c>
       <c r="B13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!B$4</f>
         <v>0</v>
       </c>
       <c r="C13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!C$4</f>
         <v>0</v>
       </c>
       <c r="D13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!D$4</f>
         <v>0</v>
       </c>
       <c r="E13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!E$4</f>
         <v>0</v>
       </c>
       <c r="F13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!F$4</f>
         <v>0</v>
       </c>
       <c r="G13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!G$4</f>
         <v>0</v>
       </c>
       <c r="H13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!H$4</f>
         <v>0</v>
       </c>
       <c r="I13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!I$4</f>
         <v>0</v>
       </c>
       <c r="J13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!J$4</f>
         <v>0</v>
       </c>
       <c r="K13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!K$4</f>
         <v>0</v>
       </c>
       <c r="L13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!L$4</f>
         <v>0</v>
       </c>
       <c r="M13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!M$4</f>
         <v>0</v>
       </c>
       <c r="N13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!N$4</f>
         <v>0</v>
       </c>
       <c r="O13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!O$4</f>
         <v>0</v>
       </c>
       <c r="P13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!P$4</f>
         <v>0</v>
       </c>
       <c r="Q13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!Q$4</f>
         <v>0</v>
       </c>
       <c r="R13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!R$4</f>
         <v>0</v>
       </c>
       <c r="S13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!S$4</f>
         <v>0</v>
       </c>
       <c r="T13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!T$4</f>
         <v>0</v>
       </c>
       <c r="U13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!U$4</f>
         <v>0</v>
       </c>
       <c r="V13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!V$4</f>
         <v>0</v>
       </c>
       <c r="W13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!W$4</f>
         <v>0</v>
       </c>
       <c r="X13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!X$4</f>
         <v>0</v>
       </c>
       <c r="Y13" s="4">
+        <f>VLOOKUP($A13,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!Y$4</f>
         <v>0</v>
       </c>
     </row>
@@ -48954,75 +49828,99 @@
         <v>13</v>
       </c>
       <c r="B14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!B$4</f>
         <v>0</v>
       </c>
       <c r="C14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!C$4</f>
         <v>0</v>
       </c>
       <c r="D14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!D$4</f>
         <v>0</v>
       </c>
       <c r="E14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!E$4</f>
         <v>0</v>
       </c>
       <c r="F14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!F$4</f>
         <v>0</v>
       </c>
       <c r="G14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!G$4</f>
         <v>0</v>
       </c>
       <c r="H14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!H$4</f>
         <v>0</v>
       </c>
       <c r="I14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!I$4</f>
         <v>0</v>
       </c>
       <c r="J14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!J$4</f>
         <v>0</v>
       </c>
       <c r="K14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!K$4</f>
         <v>0</v>
       </c>
       <c r="L14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!L$4</f>
         <v>0</v>
       </c>
       <c r="M14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!M$4</f>
         <v>0</v>
       </c>
       <c r="N14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!N$4</f>
         <v>0</v>
       </c>
       <c r="O14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!O$4</f>
         <v>0</v>
       </c>
       <c r="P14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!P$4</f>
         <v>0</v>
       </c>
       <c r="Q14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!Q$4</f>
         <v>0</v>
       </c>
       <c r="R14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!R$4</f>
         <v>0</v>
       </c>
       <c r="S14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!S$4</f>
         <v>0</v>
       </c>
       <c r="T14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!T$4</f>
         <v>0</v>
       </c>
       <c r="U14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!U$4</f>
         <v>0</v>
       </c>
       <c r="V14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!V$4</f>
         <v>0</v>
       </c>
       <c r="W14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!W$4</f>
         <v>0</v>
       </c>
       <c r="X14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!X$4</f>
         <v>0</v>
       </c>
       <c r="Y14" s="4">
+        <f>VLOOKUP($A14,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!Y$4</f>
         <v>0</v>
       </c>
     </row>
@@ -49031,75 +49929,99 @@
         <v>14</v>
       </c>
       <c r="B15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!B$4</f>
         <v>0</v>
       </c>
       <c r="C15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!C$4</f>
         <v>0</v>
       </c>
       <c r="D15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!D$4</f>
         <v>0</v>
       </c>
       <c r="E15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!E$4</f>
         <v>0</v>
       </c>
       <c r="F15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!F$4</f>
         <v>0</v>
       </c>
       <c r="G15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!G$4</f>
         <v>0</v>
       </c>
       <c r="H15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!H$4</f>
         <v>0</v>
       </c>
       <c r="I15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!I$4</f>
         <v>0</v>
       </c>
       <c r="J15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!J$4</f>
         <v>0</v>
       </c>
       <c r="K15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!K$4</f>
         <v>0</v>
       </c>
       <c r="L15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!L$4</f>
         <v>0</v>
       </c>
       <c r="M15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!M$4</f>
         <v>0</v>
       </c>
       <c r="N15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!N$4</f>
         <v>0</v>
       </c>
       <c r="O15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!O$4</f>
         <v>0</v>
       </c>
       <c r="P15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!P$4</f>
         <v>0</v>
       </c>
       <c r="Q15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!Q$4</f>
         <v>0</v>
       </c>
       <c r="R15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!R$4</f>
         <v>0</v>
       </c>
       <c r="S15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!S$4</f>
         <v>0</v>
       </c>
       <c r="T15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!T$4</f>
         <v>0</v>
       </c>
       <c r="U15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!U$4</f>
         <v>0</v>
       </c>
       <c r="V15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!V$4</f>
         <v>0</v>
       </c>
       <c r="W15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!W$4</f>
         <v>0</v>
       </c>
       <c r="X15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!X$4</f>
         <v>0</v>
       </c>
       <c r="Y15" s="4">
+        <f>VLOOKUP($A15,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!Y$4</f>
         <v>0</v>
       </c>
     </row>
@@ -49108,75 +50030,99 @@
         <v>15</v>
       </c>
       <c r="B16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!B$4</f>
         <v>0</v>
       </c>
       <c r="C16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!C$4</f>
         <v>0</v>
       </c>
       <c r="D16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!D$4</f>
         <v>0</v>
       </c>
       <c r="E16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!E$4</f>
         <v>0</v>
       </c>
       <c r="F16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!F$4</f>
         <v>0</v>
       </c>
       <c r="G16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!G$4</f>
         <v>0</v>
       </c>
       <c r="H16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!H$4</f>
         <v>0</v>
       </c>
       <c r="I16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!I$4</f>
         <v>0</v>
       </c>
       <c r="J16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!J$4</f>
         <v>0</v>
       </c>
       <c r="K16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!K$4</f>
         <v>0</v>
       </c>
       <c r="L16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!L$4</f>
         <v>0</v>
       </c>
       <c r="M16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!M$4</f>
         <v>0</v>
       </c>
       <c r="N16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!N$4</f>
         <v>0</v>
       </c>
       <c r="O16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!O$4</f>
         <v>0</v>
       </c>
       <c r="P16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!P$4</f>
         <v>0</v>
       </c>
       <c r="Q16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!Q$4</f>
         <v>0</v>
       </c>
       <c r="R16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!R$4</f>
         <v>0</v>
       </c>
       <c r="S16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!S$4</f>
         <v>0</v>
       </c>
       <c r="T16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!T$4</f>
         <v>0</v>
       </c>
       <c r="U16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!U$4</f>
         <v>0</v>
       </c>
       <c r="V16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!V$4</f>
         <v>0</v>
       </c>
       <c r="W16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!W$4</f>
         <v>0</v>
       </c>
       <c r="X16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!X$4</f>
         <v>0</v>
       </c>
       <c r="Y16" s="4">
+        <f>VLOOKUP($A16,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!Y$4</f>
         <v>0</v>
       </c>
     </row>
@@ -49185,75 +50131,99 @@
         <v>16</v>
       </c>
       <c r="B17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!B$4</f>
         <v>0</v>
       </c>
       <c r="C17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!C$4</f>
         <v>0</v>
       </c>
       <c r="D17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!D$4</f>
         <v>0</v>
       </c>
       <c r="E17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!E$4</f>
         <v>0</v>
       </c>
       <c r="F17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!F$4</f>
         <v>0</v>
       </c>
       <c r="G17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!G$4</f>
         <v>0</v>
       </c>
       <c r="H17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!H$4</f>
         <v>0</v>
       </c>
       <c r="I17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!I$4</f>
         <v>0</v>
       </c>
       <c r="J17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!J$4</f>
         <v>0</v>
       </c>
       <c r="K17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!K$4</f>
         <v>0</v>
       </c>
       <c r="L17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!L$4</f>
         <v>0</v>
       </c>
       <c r="M17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!M$4</f>
         <v>0</v>
       </c>
       <c r="N17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!N$4</f>
         <v>0</v>
       </c>
       <c r="O17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!O$4</f>
         <v>0</v>
       </c>
       <c r="P17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!P$4</f>
         <v>0</v>
       </c>
       <c r="Q17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!Q$4</f>
         <v>0</v>
       </c>
       <c r="R17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!R$4</f>
         <v>0</v>
       </c>
       <c r="S17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!S$4</f>
         <v>0</v>
       </c>
       <c r="T17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!T$4</f>
         <v>0</v>
       </c>
       <c r="U17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!U$4</f>
         <v>0</v>
       </c>
       <c r="V17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!V$4</f>
         <v>0</v>
       </c>
       <c r="W17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!W$4</f>
         <v>0</v>
       </c>
       <c r="X17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!X$4</f>
         <v>0</v>
       </c>
       <c r="Y17" s="4">
+        <f>VLOOKUP($A17,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!Y$4</f>
         <v>0</v>
       </c>
     </row>
@@ -49262,75 +50232,99 @@
         <v>17</v>
       </c>
       <c r="B18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!B$4</f>
         <v>0</v>
       </c>
       <c r="C18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!C$4</f>
         <v>0</v>
       </c>
       <c r="D18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!D$4</f>
         <v>0</v>
       </c>
       <c r="E18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!E$4</f>
         <v>0</v>
       </c>
       <c r="F18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!F$4</f>
         <v>0</v>
       </c>
       <c r="G18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!G$4</f>
         <v>0</v>
       </c>
       <c r="H18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!H$4</f>
         <v>0</v>
       </c>
       <c r="I18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!I$4</f>
         <v>0</v>
       </c>
       <c r="J18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!J$4</f>
         <v>0</v>
       </c>
       <c r="K18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!K$4</f>
         <v>0</v>
       </c>
       <c r="L18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!L$4</f>
         <v>0</v>
       </c>
       <c r="M18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!M$4</f>
         <v>0</v>
       </c>
       <c r="N18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!N$4</f>
         <v>0</v>
       </c>
       <c r="O18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!O$4</f>
         <v>0</v>
       </c>
       <c r="P18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!P$4</f>
         <v>0</v>
       </c>
       <c r="Q18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!Q$4</f>
         <v>0</v>
       </c>
       <c r="R18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!R$4</f>
         <v>0</v>
       </c>
       <c r="S18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!S$4</f>
         <v>0</v>
       </c>
       <c r="T18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!T$4</f>
         <v>0</v>
       </c>
       <c r="U18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!U$4</f>
         <v>0</v>
       </c>
       <c r="V18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!V$4</f>
         <v>0</v>
       </c>
       <c r="W18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!W$4</f>
         <v>0</v>
       </c>
       <c r="X18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!X$4</f>
         <v>0</v>
       </c>
       <c r="Y18" s="4">
+        <f>VLOOKUP($A18,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!Y$4</f>
         <v>0</v>
       </c>
     </row>
@@ -49339,75 +50333,99 @@
         <v>18</v>
       </c>
       <c r="B19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!B$4</f>
         <v>0</v>
       </c>
       <c r="C19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!C$4</f>
         <v>0</v>
       </c>
       <c r="D19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!D$4</f>
         <v>0</v>
       </c>
       <c r="E19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!E$4</f>
         <v>0</v>
       </c>
       <c r="F19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!F$4</f>
         <v>0</v>
       </c>
       <c r="G19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!G$4</f>
         <v>0</v>
       </c>
       <c r="H19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!H$4</f>
         <v>0</v>
       </c>
       <c r="I19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!I$4</f>
         <v>0</v>
       </c>
       <c r="J19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!J$4</f>
         <v>0</v>
       </c>
       <c r="K19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!K$4</f>
         <v>0</v>
       </c>
       <c r="L19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!L$4</f>
         <v>0</v>
       </c>
       <c r="M19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!M$4</f>
         <v>0</v>
       </c>
       <c r="N19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!N$4</f>
         <v>0</v>
       </c>
       <c r="O19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!O$4</f>
         <v>0</v>
       </c>
       <c r="P19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!P$4</f>
         <v>0</v>
       </c>
       <c r="Q19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!Q$4</f>
         <v>0</v>
       </c>
       <c r="R19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!R$4</f>
         <v>0</v>
       </c>
       <c r="S19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!S$4</f>
         <v>0</v>
       </c>
       <c r="T19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!T$4</f>
         <v>0</v>
       </c>
       <c r="U19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!U$4</f>
         <v>0</v>
       </c>
       <c r="V19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!V$4</f>
         <v>0</v>
       </c>
       <c r="W19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!W$4</f>
         <v>0</v>
       </c>
       <c r="X19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!X$4</f>
         <v>0</v>
       </c>
       <c r="Y19" s="4">
+        <f>VLOOKUP($A19,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!Y$4</f>
         <v>0</v>
       </c>
     </row>
@@ -49416,152 +50434,99 @@
         <v>19</v>
       </c>
       <c r="B20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!B$4</f>
         <v>0</v>
       </c>
       <c r="C20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!C$4</f>
         <v>0</v>
       </c>
       <c r="D20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!D$4</f>
         <v>0</v>
       </c>
       <c r="E20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!E$4</f>
         <v>0</v>
       </c>
       <c r="F20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!F$4</f>
         <v>0</v>
       </c>
       <c r="G20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!G$4</f>
         <v>0</v>
       </c>
       <c r="H20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!H$4</f>
         <v>0</v>
       </c>
       <c r="I20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!I$4</f>
         <v>0</v>
       </c>
       <c r="J20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!J$4</f>
         <v>0</v>
       </c>
       <c r="K20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!K$4</f>
         <v>0</v>
       </c>
       <c r="L20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!L$4</f>
         <v>0</v>
       </c>
       <c r="M20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!M$4</f>
         <v>0</v>
       </c>
       <c r="N20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!N$4</f>
         <v>0</v>
       </c>
       <c r="O20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!O$4</f>
         <v>0</v>
       </c>
       <c r="P20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!P$4</f>
         <v>0</v>
       </c>
       <c r="Q20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!Q$4</f>
         <v>0</v>
       </c>
       <c r="R20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!R$4</f>
         <v>0</v>
       </c>
       <c r="S20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!S$4</f>
         <v>0</v>
       </c>
       <c r="T20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!T$4</f>
         <v>0</v>
       </c>
       <c r="U20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!U$4</f>
         <v>0</v>
       </c>
       <c r="V20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!V$4</f>
         <v>0</v>
       </c>
       <c r="W20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!W$4</f>
         <v>0</v>
       </c>
       <c r="X20" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!X$4</f>
         <v>0</v>
       </c>
       <c r="Y20" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>20</v>
-      </c>
-      <c r="B21" s="4">
-        <v>0</v>
-      </c>
-      <c r="C21" s="4">
-        <v>0</v>
-      </c>
-      <c r="D21" s="4">
-        <v>0</v>
-      </c>
-      <c r="E21" s="4">
-        <v>0</v>
-      </c>
-      <c r="F21" s="4">
-        <v>0</v>
-      </c>
-      <c r="G21" s="4">
-        <v>0</v>
-      </c>
-      <c r="H21" s="4">
-        <v>0</v>
-      </c>
-      <c r="I21" s="4">
-        <v>0</v>
-      </c>
-      <c r="J21" s="4">
-        <v>0</v>
-      </c>
-      <c r="K21" s="4">
-        <v>0</v>
-      </c>
-      <c r="L21" s="4">
-        <v>0</v>
-      </c>
-      <c r="M21" s="4">
-        <v>0</v>
-      </c>
-      <c r="N21" s="4">
-        <v>0</v>
-      </c>
-      <c r="O21" s="4">
-        <v>0</v>
-      </c>
-      <c r="P21" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="4">
-        <v>0</v>
-      </c>
-      <c r="R21" s="4">
-        <v>0</v>
-      </c>
-      <c r="S21" s="4">
-        <v>0</v>
-      </c>
-      <c r="T21" s="4">
-        <v>0</v>
-      </c>
-      <c r="U21" s="4">
-        <v>0</v>
-      </c>
-      <c r="V21" s="4">
-        <v>0</v>
-      </c>
-      <c r="W21" s="4">
-        <v>0</v>
-      </c>
-      <c r="X21" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="4">
+        <f>VLOOKUP($A20,'RES installed'!$A$2:$C$10,3,FALSE)*'[1]Profiles, RES, Summer'!Y$4</f>
         <v>0</v>
       </c>
     </row>
@@ -49652,11 +50617,11 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D619362D-1835-4A6C-8232-0B7B739CBBE7}">
-  <dimension ref="A1:Y21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D78B67EC-9701-4188-A4F8-10B08E6BDAB5}">
+  <dimension ref="A1:Y20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A21"/>
+      <selection activeCell="B12" sqref="B12:Y20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51201,94 +52166,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>20</v>
-      </c>
-      <c r="B21" s="4">
-        <v>0</v>
-      </c>
-      <c r="C21" s="4">
-        <v>0</v>
-      </c>
-      <c r="D21" s="4">
-        <v>0</v>
-      </c>
-      <c r="E21" s="4">
-        <v>0</v>
-      </c>
-      <c r="F21" s="4">
-        <v>0</v>
-      </c>
-      <c r="G21" s="4">
-        <v>0</v>
-      </c>
-      <c r="H21" s="4">
-        <v>0</v>
-      </c>
-      <c r="I21" s="4">
-        <v>0</v>
-      </c>
-      <c r="J21" s="4">
-        <v>0</v>
-      </c>
-      <c r="K21" s="4">
-        <v>0</v>
-      </c>
-      <c r="L21" s="4">
-        <v>0</v>
-      </c>
-      <c r="M21" s="4">
-        <v>0</v>
-      </c>
-      <c r="N21" s="4">
-        <v>0</v>
-      </c>
-      <c r="O21" s="4">
-        <v>0</v>
-      </c>
-      <c r="P21" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="4">
-        <v>0</v>
-      </c>
-      <c r="R21" s="4">
-        <v>0</v>
-      </c>
-      <c r="S21" s="4">
-        <v>0</v>
-      </c>
-      <c r="T21" s="4">
-        <v>0</v>
-      </c>
-      <c r="U21" s="4">
-        <v>0</v>
-      </c>
-      <c r="V21" s="4">
-        <v>0</v>
-      </c>
-      <c r="W21" s="4">
-        <v>0</v>
-      </c>
-      <c r="X21" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="4">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7A0D1B1-2A65-4509-ACFD-C249FDD6A3B5}">
-  <dimension ref="A1:Y21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93EA455F-0D3B-4CEB-AB04-2B709386392A}">
+  <dimension ref="A1:Y20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A21"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -52833,94 +53721,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>20</v>
-      </c>
-      <c r="B21" s="4">
-        <v>0</v>
-      </c>
-      <c r="C21" s="4">
-        <v>0</v>
-      </c>
-      <c r="D21" s="4">
-        <v>0</v>
-      </c>
-      <c r="E21" s="4">
-        <v>0</v>
-      </c>
-      <c r="F21" s="4">
-        <v>0</v>
-      </c>
-      <c r="G21" s="4">
-        <v>0</v>
-      </c>
-      <c r="H21" s="4">
-        <v>0</v>
-      </c>
-      <c r="I21" s="4">
-        <v>0</v>
-      </c>
-      <c r="J21" s="4">
-        <v>0</v>
-      </c>
-      <c r="K21" s="4">
-        <v>0</v>
-      </c>
-      <c r="L21" s="4">
-        <v>0</v>
-      </c>
-      <c r="M21" s="4">
-        <v>0</v>
-      </c>
-      <c r="N21" s="4">
-        <v>0</v>
-      </c>
-      <c r="O21" s="4">
-        <v>0</v>
-      </c>
-      <c r="P21" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="4">
-        <v>0</v>
-      </c>
-      <c r="R21" s="4">
-        <v>0</v>
-      </c>
-      <c r="S21" s="4">
-        <v>0</v>
-      </c>
-      <c r="T21" s="4">
-        <v>0</v>
-      </c>
-      <c r="U21" s="4">
-        <v>0</v>
-      </c>
-      <c r="V21" s="4">
-        <v>0</v>
-      </c>
-      <c r="W21" s="4">
-        <v>0</v>
-      </c>
-      <c r="X21" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="4">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{638B1A85-F6F6-4899-AD32-A0E444FAC925}">
-  <dimension ref="A1:Y21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01752E51-ECCB-49E7-8E41-82022344F1BA}">
+  <dimension ref="A1:Y20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A21"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -54465,83 +55276,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>20</v>
-      </c>
-      <c r="B21" s="4">
-        <v>0</v>
-      </c>
-      <c r="C21" s="4">
-        <v>0</v>
-      </c>
-      <c r="D21" s="4">
-        <v>0</v>
-      </c>
-      <c r="E21" s="4">
-        <v>0</v>
-      </c>
-      <c r="F21" s="4">
-        <v>0</v>
-      </c>
-      <c r="G21" s="4">
-        <v>0</v>
-      </c>
-      <c r="H21" s="4">
-        <v>0</v>
-      </c>
-      <c r="I21" s="4">
-        <v>0</v>
-      </c>
-      <c r="J21" s="4">
-        <v>0</v>
-      </c>
-      <c r="K21" s="4">
-        <v>0</v>
-      </c>
-      <c r="L21" s="4">
-        <v>0</v>
-      </c>
-      <c r="M21" s="4">
-        <v>0</v>
-      </c>
-      <c r="N21" s="4">
-        <v>0</v>
-      </c>
-      <c r="O21" s="4">
-        <v>0</v>
-      </c>
-      <c r="P21" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="4">
-        <v>0</v>
-      </c>
-      <c r="R21" s="4">
-        <v>0</v>
-      </c>
-      <c r="S21" s="4">
-        <v>0</v>
-      </c>
-      <c r="T21" s="4">
-        <v>0</v>
-      </c>
-      <c r="U21" s="4">
-        <v>0</v>
-      </c>
-      <c r="V21" s="4">
-        <v>0</v>
-      </c>
-      <c r="W21" s="4">
-        <v>0</v>
-      </c>
-      <c r="X21" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="4">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -54549,10 +55283,10 @@
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{408D9792-F63F-4427-BB5B-847351ACEE5E}">
-  <dimension ref="A1:Y21"/>
+  <dimension ref="A1:Y20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -56094,83 +56828,6 @@
         <v>0</v>
       </c>
       <c r="Y20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>20</v>
-      </c>
-      <c r="B21" s="3">
-        <v>0</v>
-      </c>
-      <c r="C21" s="3">
-        <v>0</v>
-      </c>
-      <c r="D21" s="3">
-        <v>0</v>
-      </c>
-      <c r="E21" s="3">
-        <v>0</v>
-      </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
-      <c r="N21" s="3">
-        <v>0</v>
-      </c>
-      <c r="O21" s="3">
-        <v>0</v>
-      </c>
-      <c r="P21" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>0</v>
-      </c>
-      <c r="R21" s="3">
-        <v>0</v>
-      </c>
-      <c r="S21" s="3">
-        <v>0</v>
-      </c>
-      <c r="T21" s="3">
-        <v>0</v>
-      </c>
-      <c r="U21" s="3">
-        <v>0</v>
-      </c>
-      <c r="V21" s="3">
-        <v>0</v>
-      </c>
-      <c r="W21" s="3">
-        <v>0</v>
-      </c>
-      <c r="X21" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="3">
         <v>0</v>
       </c>
     </row>

--- a/data/HR1/A_BJ_35/A_BJ_35_2024.xlsx
+++ b/data/HR1/A_BJ_35/A_BJ_35_2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\HR1\A_BJ_35\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85320394-3A6C-4079-BD3D-E2C5BA91E0B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF0AE67B-34ED-4267-8280-43831A40E572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="23" activeTab="32" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1830" windowWidth="29040" windowHeight="17640" firstSheet="12" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -16589,7 +16589,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="A6" sqref="A6:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16671,7 +16671,7 @@
   <dimension ref="A1:Z24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:Y14"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25359,8 +25359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A725F142-1119-4794-A24A-37C0A8DD46A7}">
   <dimension ref="A1:Y20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33271,7 +33271,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C10"/>
+      <selection activeCell="C5" sqref="A1:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50540,7 +50540,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C6"/>
+      <selection activeCell="B3" sqref="A1:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -55285,7 +55285,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{408D9792-F63F-4427-BB5B-847351ACEE5E}">
   <dimension ref="A1:Y20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
@@ -56841,7 +56841,7 @@
   <dimension ref="A1:Y25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:Y14"/>
+      <selection activeCell="C2" sqref="A1:Y14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
